--- a/리볼트데이 문서/기초기획서(181219).xlsx
+++ b/리볼트데이 문서/기초기획서(181219).xlsx
@@ -5,21 +5,23 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\리볼트데이 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547B3B1-57BF-484F-B4C4-D829685547C8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645A61C-4F29-4C9E-B2D3-949B1FB5758F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" xr2:uid="{4FDB079C-D219-43E0-BABC-623711B061EB}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="2" activeTab="4" xr2:uid="{4FDB079C-D219-43E0-BABC-623711B061EB}"/>
   </bookViews>
   <sheets>
     <sheet name="게임의 목적과 메카닉스" sheetId="3" r:id="rId1"/>
     <sheet name="게임 진행 과정" sheetId="6" r:id="rId2"/>
-    <sheet name="컨텐츠 설명" sheetId="7" r:id="rId3"/>
-    <sheet name="게임 주요 정책" sheetId="1" r:id="rId4"/>
-    <sheet name="게임 비쥬얼 컨셉" sheetId="2" r:id="rId5"/>
-    <sheet name="세부사항" sheetId="5" r:id="rId6"/>
-    <sheet name="음악 리소스" sheetId="4" r:id="rId7"/>
+    <sheet name="월드맵 세부 사항" sheetId="8" r:id="rId3"/>
+    <sheet name="컨텐츠 - 격투" sheetId="7" r:id="rId4"/>
+    <sheet name="컨텐츠 - 추리" sheetId="9" r:id="rId5"/>
+    <sheet name="게임 주요 정책" sheetId="1" r:id="rId6"/>
+    <sheet name="게임 비쥬얼 컨셉" sheetId="2" r:id="rId7"/>
+    <sheet name="각종 예외 상황" sheetId="5" r:id="rId8"/>
+    <sheet name="음악 리소스" sheetId="4" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="255">
   <si>
     <t>리볼트 데이 통합 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -163,10 +165,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>턴 제로 진행된다. 한턴은 게임 상 하루로 취급된다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>이슈 해결 시 랜덤으로 습득한다. 이 단서들이 모이면 사건을 진행할 수 있다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -511,14 +509,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이슈 변경사항</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일반/긴급/봉쇄 해금 이슈로 나눔</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>일반 - 항상 실행가능, 치안 저하 없음, 사건 단서 획득 가능(랜덤 드랍) 예외 상황 체크</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -543,22 +533,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>강소원 - 긴급/봉쇄 이슈 우선적으로 처리(이동 속도가 느림)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정 배회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>전민원 - 플레이어 우선 추격&amp;습격(조우할 시 공격당함)(*전민원이 사망하면 다시는 등장하지 않음)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>시즌 출현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Desert Building</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -571,34 +545,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NPC들 상태다이어 그램 필요.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지역 상호작용으로만 등장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>미스터 장 - 압구정 사무실</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>오소영 - 단서 경쟁(사건 시작 시 등장하여 플레이어와 경쟁)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>함정임 - 단서 경쟁(대리인으로 등장/특정 사건만 등장)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>각 캐릭터. 말 Png 필요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>박우주 - 지역 랜덤(랜덤 레인지 전부다 1/17), 단 사건 파일 #s4 혹은 #s10 일 시 율현동으로 고정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>난점</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,7 +585,283 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상점 - 대치동</t>
+    <t>Speak with  Waltz Dance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>제목</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장르</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래픽 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Revolt Day</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근미래 어드밴쳐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2D/3인칭 시점</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 전체 진행 과정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 사이클 - 요약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 시작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 힌트 제시 - 맵 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 이동 후 이슈 조우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 시 캐릭터 위치가 확대</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그리고 손모양 UI사 출력됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순간 이동 식 - 연출은 체스 처럼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 조우시 다음과 같은 공략을 요구함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투 - NPC들과 직접적인 전투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리 - 현장에서 단서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 해결</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보상 및 사건 단서 획득</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 시작(사건 힌트 제공)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게임 사이클 구도 표현</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사건 수렴 때까지 반복</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주사위(면체 값) 또는 부가 피해는 추후 밸런스적으로 수정 해야할 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">모티브는 회색 도시, 진구지 사부로의 D-모드 등의 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방 탈출 게임과 흡사하나. AD 인원이 부족하기 때문에</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">컨셉 아트 등의 리소스는 팀원들이 구하고 기획을 완료한 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단계에서 AD에게 의뢰할 것.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스팟을 띄워 유저가 쉽게 알 수 있게 할 것인가?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아니면 스팟을 띄우지 않고 말 그대로 플레이어가 완전히</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리하게끔 유도할 것인가 결정해야함….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구현 방식은 전 회의에서 결정된 바 있으나 (쉽고 다양하게)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 상 폴리싱할 여유가 있다면 퀄리티를 높일 것….</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">정해진 단서가 수량 만큼 확보되어 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">합이 참이 되면 성공, 참이 아니라면 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두번까지는 재도전 여지 제공.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>협상에서 펼치는 일들을 다룬다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어가 직접 플레이한다기 보다 진구지의 선택을 지켜보는 느낌(답정너)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ver.1.3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>초상화로 표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>말 이동 시 순간이동(이동 칸수는 최단 거리로 계산)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체스 말 두듯이 이동(위에 손이 생성)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접한 칸은 한칸 이동(int Vector.transform.translate. 이용)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조사 커맨드를 통해 이슈와 조우</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>직선, 대각선 모두 한칸 인정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한칸 당 행동력 1 소모</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>턴 제로 진행된다. 홀수 턴은 낮, 짝수 턴은 밤으로 묘사한다. 2턴이 지나면 하루가 지난 것이다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대치동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일반 상점: 항시 개방, 각종 소모품 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수 상점: 4번째 턴 마다 개방, 특수 장비 물품 판매</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추리가 높으면 상대방이 뭘 낼지 알 수 있게?(킵 아이디어)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매턴 마다 랜덤확률로 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미해결 시 매턴마다 치안 수치 감소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치안 수치가 바닥날 시 지역 봉쇄 됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>긴급 이슈 발생 지역(고난이도 이슈)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단서를 모을 경우 해금되는 메인 퀘스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메안 퀘스트의 가이드 라인 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치안 수치가 바닥 나면 해당 지역이 봉쇄됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉쇄 해체 미션을 제외하면 모든 기능이 마비됨(메인 퀘스트 포함)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>봉쇄 지역이 5곳에 도달하면 게임 오버된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리스 라인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치안 수치를 나타냄</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>치안 수치가 떨어질 수록 지역에 폴리스 라인이 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>폴리스 라인이 5개가 되면 해당 지역이 봉쇄됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>맵 아이콘 - 지역 위에 출력되면서 깜빡 거림.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>* 복수의 이벤트가 걸려있을 시 3초마다 깜빡 거리면서 아이콘이 바뀜.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이슈 종류</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -647,14 +869,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>저장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>save/load</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>저장 방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -663,155 +877,91 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>비밀상점 - 5턴마다 개장. 물품 랜덤 판매</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>항시상점 - 상점 일반 품목 판매(항시)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Speak with  Waltz Dance</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>제목</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>장르</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그래픽 표현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Revolt Day</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>근미래 어드밴쳐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>2D/3인칭 시점</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ver.1.2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 전체 진행 과정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 사이클 - 요약</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 시작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건 힌트 제시 - 맵 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 이동 후 이슈 조우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>맵 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동 시 캐릭터 위치가 확대</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>그리고 손모양 UI사 출력됨</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>순간 이동 식 - 연출은 체스 처럼</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이슈와 조우</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이슈 조우시 다음과 같은 공략을 요구함</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투 - NPC들과 직접적인 전투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리 - 현장에서 단서 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이슈 해결</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>보상 및 사건 단서 획득</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>턴 시작(사건 힌트 제공)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>게임 사이클 구도 표현</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사건 수렴 때까지 반복</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컨텐츠 1 - 격투</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단순한 상성으로 승부가 결정되는 것이 아닌</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>배틀 다이스(주사위) 또는 부가 피해를 입히는 방식으로</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어에게 조금 더 고민하고 이슈에 대한 도전 여지를 제공한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>주사위(면체 값) 또는 부가 피해는 추후 밸런스적으로 수정 해야할 것.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>가위바위보 라는 명칭 대신, 아웃 복싱, 인파이팅, 그래플링이라는 명칭 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">격투 도중 소모 아이템 사용 불가로 결정 되었으나 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>격투 외의 능력치 또는 밸런스에 의해 도입될 가능성이 있음.</t>
+    <t>인물 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>캐릭터 말</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강원진</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전민원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방해요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강소원</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조력 요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 행동 - 긴급 이슈, 봉쇄 이슈를 확률적으로 해결해줌</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI 행동 - 무작위 이동, 플레이어와 마주칠 시 격투 이벤트 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특별 이벤트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>함정임</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>오소영</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI행동 - 사건 해결 방해, 플레이어 추적 및 격투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AI행동 - 사건 해결 방해, 무작위 이동&amp;단서 드랍 확률 저하</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨텐츠 - 추리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순한 상성으로 승부가 결정되는 것이 아닌 배틀 다이스(주사위) 또는 부가 피해를 입히는 방식으로 플레이어에게 조금 더 고민하고 이슈에 대한 도전 여지를 제공한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컨셉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투술을 표현. 가위바위보 라는 명칭 대신, 아웃 복싱, 인파이팅, 그래플링이라는 명칭 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>격투 도중 소모 아이템 사용 불가로 결정 되었으나 격투 외의 능력치 또는 밸런스에 의해 도입될 가능성이 있음.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -819,63 +969,95 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>컨텐츠 2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">모티브는 회색 도시, 진구지 사부로의 D-모드 등의 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>방 탈출 게임과 흡사하나. AD 인원이 부족하기 때문에</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">컨셉 아트 등의 리소스는 팀원들이 구하고 기획을 완료한 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단계에서 AD에게 의뢰할 것.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>스팟을 띄워 유저가 쉽게 알 수 있게 할 것인가?</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>아니면 스팟을 띄우지 않고 말 그대로 플레이어가 완전히</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>추리하게끔 유도할 것인가 결정해야함….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현 방식은 전 회의에서 결정된 바 있으나 (쉽고 다양하게)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일정 상 폴리싱할 여유가 있다면 퀄리티를 높일 것….</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">정해진 단서가 수량 만큼 확보되어 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">합이 참이 되면 성공, 참이 아니라면 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>두번까지는 재도전 여지 제공.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>협상에서 펼치는 일들을 다룬다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>플레이어가 직접 플레이한다기 보다 진구지의 선택을 지켜보는 느낌(답정너)</t>
+    <t>컨텐츠 - 격투</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예외 사항</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개요</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">회색 도시와 같이 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>바위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인 파이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>그래플링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가위</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>아웃 파이트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이긴다</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본 개념은 가위, 바위, 보 형식으로 맞물리게 진행됨.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 행동을 제시하면 각자 속성에 따라 공방을 교환함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기본적으로 데미지를 동시에 교환함.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 유리한 속성으로 공격할 시 다음과 같은 어드밴테이지가 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유리할 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데미지 증가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>피해 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 한턴 경직</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>속성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>만약 속성이 같다면 어드밴테이지가 없고 서로 데미지 교환만 이루어짐.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -934,7 +1116,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="32">
     <border>
       <left/>
       <right/>
@@ -1259,6 +1441,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1268,7 +1524,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="89">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1297,6 +1553,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1371,6 +1630,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1379,6 +1659,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1389,23 +1675,68 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1426,12 +1757,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1455,20 +1780,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1805,7 +2127,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>510540</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>173138</xdr:rowOff>
+      <xdr:rowOff>162252</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1884,7 +2206,7 @@
       <xdr:col>13</xdr:col>
       <xdr:colOff>589017</xdr:colOff>
       <xdr:row>27</xdr:row>
-      <xdr:rowOff>48622</xdr:rowOff>
+      <xdr:rowOff>37736</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2339,7 +2661,7 @@
       <xdr:col>26</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>41</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>104774</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2400,7 +2722,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>266700</xdr:colOff>
       <xdr:row>40</xdr:row>
-      <xdr:rowOff>120190</xdr:rowOff>
+      <xdr:rowOff>120189</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2539,7 +2861,7 @@
       <xdr:col>29</xdr:col>
       <xdr:colOff>200024</xdr:colOff>
       <xdr:row>56</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>74839</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2600,7 +2922,7 @@
       <xdr:col>21</xdr:col>
       <xdr:colOff>285750</xdr:colOff>
       <xdr:row>54</xdr:row>
-      <xdr:rowOff>120190</xdr:rowOff>
+      <xdr:rowOff>109304</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2872,7 +3194,7 @@
       <xdr:col>22</xdr:col>
       <xdr:colOff>66675</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>46264</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -3107,22 +3429,524 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>66954</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>319146</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2" descr="ê°ì ë°ì ë³´ ìì±ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+        <xdr:cNvPr id="2" name="그림 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D19ED8D-37AC-4240-83F6-87D10F4DA9D0}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB2AD606-582F-46DC-8F04-FA4924EEB74A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1280160" y="1082040"/>
+          <a:ext cx="6415146" cy="4610100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>198121</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>175261</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>180758</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{543CFAEF-F77E-4C7C-AECD-86388CA1C74B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19778" t="7667" r="49585" b="72207"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4221481" y="3931921"/>
+          <a:ext cx="502919" cy="668437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>182881</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>198119</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>442166</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>150753</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E6B31400-3206-43DE-B183-026757FA6CDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="17560" t="1488" r="12500" b="16667"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm rot="6727638">
+          <a:off x="8276247" y="2140293"/>
+          <a:ext cx="836554" cy="929845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>99061</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>5498</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="그림 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5CF66BED-B61A-4E63-9046-F6CAF3BB6B45}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19778" t="7667" r="49585" b="72207"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8145781" y="1104901"/>
+          <a:ext cx="502919" cy="668437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>55328</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>480060</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D0529380-7C72-4D59-832A-03F0835B8800}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="42048" t="38843" r="27900" b="20992"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8275320" y="3370028"/>
+          <a:ext cx="1592580" cy="1529632"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>594360</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>60960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACA6F23D-6FFC-4289-87CB-869D1B7FA3D2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="42048" t="58347" r="41917" b="20992"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8641080" y="5364480"/>
+          <a:ext cx="1028700" cy="952500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>45720</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>396240</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>83820</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="13" name="그림 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DE740472-D566-45F0-82BB-09B6680D0BB5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16036" t="4120" r="12646" b="21461"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="3398520" y="2811780"/>
+          <a:ext cx="350520" cy="365760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="그림 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9337A780-25C4-44F2-A0E7-AA0C671BC845}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6202" t="-2325" r="5426" b="13953"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1623060" y="6682740"/>
+          <a:ext cx="769620" cy="769620"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>304799</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38099</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>386397</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="15" name="그림 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9BE7D169-5D37-4662-AD12-EFCEB5B203E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="16036" t="4120" r="12646" b="21461"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6339839" y="6682739"/>
+          <a:ext cx="752158" cy="784861"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>358140</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>148610</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>167</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 2" descr="í´ë¦¬ì¤ ë¼ì¸ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3AD4594B-B522-4F36-980A-03E3A0ED4F9B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3130,23 +3954,32 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1377" b="100000" l="377" r="98744">
+                      <a14:foregroundMark x1="13442" y1="15895" x2="83040" y2="2753"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="59605"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="1047750"/>
-          <a:ext cx="3562350" cy="2372004"/>
+        <a:xfrm flipV="1">
+          <a:off x="5052060" y="3463310"/>
+          <a:ext cx="723900" cy="293517"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3167,23 +4000,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>289835</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>7586</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>152400</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>94130</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>411480</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>120599</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4" descr="íìëìì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+        <xdr:cNvPr id="17" name="Picture 2" descr="í´ë¦¬ì¤ ë¼ì¸ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BFA9FE3B-72BE-466E-A5CC-1CCEF87B7219}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89FE9457-2B04-4A06-8633-B14554391C1B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3191,23 +4024,32 @@
           <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1377" b="100000" l="377" r="98744">
+                      <a14:foregroundMark x1="13442" y1="15895" x2="83040" y2="2753"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
               <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
+        <a:srcRect t="59605" b="26182"/>
+        <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="685800" y="4400550"/>
-          <a:ext cx="3581400" cy="2399180"/>
+        <a:xfrm flipV="1">
+          <a:off x="4983755" y="3543266"/>
+          <a:ext cx="792205" cy="113013"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3226,10 +4068,1751 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>99060</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>179090</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>30647</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 2" descr="í´ë¦¬ì¤ ë¼ì¸ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C08C96C-96F8-4768-AA77-058CABD88FF0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId8">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1377" b="100000" l="377" r="98744">
+                      <a14:foregroundMark x1="13442" y1="15895" x2="83040" y2="2753"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="59605"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6804660" y="1725950"/>
+          <a:ext cx="723900" cy="293517"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>91872</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>205739</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>105359</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 2" descr="í´ë¦¬ì¤ ë¼ì¸ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{06366036-01FB-4322-BE89-EF4C9FC23CB3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1377" b="100000" l="377" r="98744">
+                      <a14:foregroundMark x1="13442" y1="15895" x2="83040" y2="2753"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="59605" b="26182"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="6797472" y="1752599"/>
+          <a:ext cx="845388" cy="120600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>208388</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>201950</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 2" descr="í´ë¦¬ì¤ ë¼ì¸ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8C63834-C4EA-4CFD-8443-52FF6DF75E4E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId11" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId12">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1377" b="100000" l="377" r="98744">
+                      <a14:foregroundMark x1="13442" y1="15895" x2="83040" y2="2753"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="59605"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipH="1">
+          <a:off x="6743700" y="1310640"/>
+          <a:ext cx="840848" cy="217190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>181628</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>472439</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>182880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="그림 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26D60608-4771-43A8-9C06-80CB22D17359}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId13" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="15190"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6216668" y="7780020"/>
+          <a:ext cx="961371" cy="815340"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>243841</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>12636</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>7621</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="그림 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75FEB8AF-8CEB-45DA-B997-EBDDB69B1305}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect b="15190"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6949441" y="1117536"/>
+          <a:ext cx="434340" cy="368364"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>45995</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>213325</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>609600</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>168406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Picture 2" descr="í´ë¦¬ì¤ ë¼ì¸ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77B1BF75-EA40-427F-9D87-E20F2BD8C4B3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId9" cstate="print">
+          <a:extLst>
+            <a:ext uri="{BEBA8EAE-BF5A-486C-A8C5-ECC9F3942E4B}">
+              <a14:imgProps xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+                <a14:imgLayer r:embed="rId10">
+                  <a14:imgEffect>
+                    <a14:backgroundRemoval t="1377" b="100000" l="377" r="98744">
+                      <a14:foregroundMark x1="13442" y1="15895" x2="83040" y2="2753"/>
+                    </a14:backgroundRemoval>
+                  </a14:imgEffect>
+                </a14:imgLayer>
+              </a14:imgProps>
+            </a:ext>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect t="59605" b="26182"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="1387115" y="8168605"/>
+          <a:ext cx="1234165" cy="176061"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>205740</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>198120</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>99060</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="그림 24">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{23825F29-C98F-402C-8ED8-B63FE9EEBA1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId15" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="6202" t="-2325" r="5426" b="13953"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="5227320" y="2857500"/>
+          <a:ext cx="335280" cy="335280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>419102</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>59057</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>53340</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="그림 26">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D57DB03C-E7A2-4A2D-85A7-BCA8476C8F7D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="36919" t="27019" r="50140" b="44589"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5113022" y="2047877"/>
+          <a:ext cx="525778" cy="657223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>632460</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>158817</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>518159</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="그림 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F747DE0E-82F0-458A-9DE5-472E35254D49}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="57885" t="9380" r="13914" b="74730"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5996940" y="2147637"/>
+          <a:ext cx="556259" cy="526983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>83820</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>78104</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586739</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>83601</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="그림 28">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{771F9C4F-E404-4418-B149-C540D1FFB932}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19778" t="7667" r="49585" b="72207"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1424940" y="9382124"/>
+          <a:ext cx="502919" cy="668437"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>60961</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>586739</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>70483</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="그림 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C442FB75-E30C-4A20-9004-57E6A498FFDD}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="36919" t="27019" r="50140" b="44589"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1402081" y="10264140"/>
+          <a:ext cx="525778" cy="657223"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>115000</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>594358</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>200023</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="그림 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAD0744F-15BC-4C75-983E-8F4A956AEF21}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="57885" t="9380" r="13914" b="74730"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1379219" y="11186860"/>
+          <a:ext cx="556259" cy="526983"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>53341</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>213360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>610667</xdr:colOff>
+      <xdr:row>50</xdr:row>
+      <xdr:rowOff>173864</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="그림 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBACF641-F502-4DD4-9857-92FF9D799AD9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="12626" t="41180" r="67116" b="43651"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758941" y="10401300"/>
+          <a:ext cx="557326" cy="844424"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>91439</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>598132</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>190500</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="그림 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93A40840-8650-4E84-912F-19B3FCB374A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="48944" b="41619"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6736080" y="9395459"/>
+          <a:ext cx="567652" cy="762001"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>426720</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69616</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>515841</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>130718</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="ê°ì ë°ì ë³´ ìì±ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D19ED8D-37AC-4240-83F6-87D10F4DA9D0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1767840" y="732556"/>
+          <a:ext cx="2552700" cy="1828942"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>358139</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>308113</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>148544</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="그림 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A134079C-9B67-407C-A4ED-47E289212463}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="19778" t="7667" r="49585" b="72207"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1699259" y="3672840"/>
+          <a:ext cx="1516381" cy="2015444"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="C00000"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>434340</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>89536</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>121920</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>3813</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="그림 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5782AC9-6515-47C3-9CFA-7C55B87468B0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="36919" t="27019" r="50140" b="44589"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5798820" y="3640456"/>
+          <a:ext cx="1699260" cy="2124077"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF">
+            <a:shade val="85000"/>
+          </a:srgbClr>
+        </a:solidFill>
+        <a:ln w="88900" cap="sq">
+          <a:solidFill>
+            <a:srgbClr val="FFFFFF"/>
+          </a:solidFill>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:effectLst>
+          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
+            <a:srgbClr val="000000">
+              <a:alpha val="40000"/>
+            </a:srgbClr>
+          </a:outerShdw>
+        </a:effectLst>
+        <a:scene3d>
+          <a:camera prst="orthographicFront"/>
+          <a:lightRig rig="twoPt" dir="t">
+            <a:rot lat="0" lon="0" rev="7200000"/>
+          </a:lightRig>
+        </a:scene3d>
+        <a:sp3d>
+          <a:bevelT w="25400" h="19050"/>
+          <a:contourClr>
+            <a:srgbClr val="FFFFFF"/>
+          </a:contourClr>
+        </a:sp3d>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>60960</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>198120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="그림 6" descr="ê°ìë°ìë³´ì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{050D310D-4A72-42D4-B0C7-60D0E9762FFB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="3413760" y="3642360"/>
+          <a:ext cx="2179320" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>218659</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>19876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>119268</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>72885</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="그림 7" descr="ê´ë ¨ ì´ë¯¸ì§">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FAB9F470-7744-491D-B55C-F79ACBF7DDE4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="25709" r="21612"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4234068" y="7262189"/>
+          <a:ext cx="1908313" cy="2020957"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>13251</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>118961</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>481230</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>59632</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="11" name="그림 10" descr="https://mblogthumb-phinf.pstatic.net/20130926_75/khs20010327_1380199160200Qd2jE_PNG/Screenshot_2013-09-24-22-10-27.png?type=w2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BA0E9DA-3373-4A09-8893-CF44DE8FD818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="14448" r="19611"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="2020955" y="9547883"/>
+          <a:ext cx="2257023" cy="1908619"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>285206</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>112643</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>272663</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>81830</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="12" name="그림 11" descr="Otro deporte que me apasiona es el judo, ya que es un deporte de combate en el cual uno descarga mucha adrenalina al estar luchando y considero que el deporte mientras mÃ¡s exija esfuerzo mÃ¡s fuertes nos hace (fÃ­sica, mental o sentimentalmente).">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4CA94023-4239-4DB1-AE45-949BBB4E9997}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId7" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="6308319" y="9322904"/>
+          <a:ext cx="2174066" cy="2155796"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>39758</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>86139</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>258419</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>53008</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="13" name="화살표: 아래쪽 12">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4B5C18E5-1454-45BD-8FE2-41268F3AF8C8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="16200000">
+          <a:off x="4856923" y="10038521"/>
+          <a:ext cx="622852" cy="887896"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>251792</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>26505</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>470453</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>212035</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="14" name="화살표: 아래쪽 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{57180CC6-693A-4240-AC0F-C94F301CAD0D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="2931927">
+          <a:off x="3061253" y="8229600"/>
+          <a:ext cx="622852" cy="887896"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>457201</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>59635</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>6627</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>26504</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="15" name="화살표: 아래쪽 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BE6A62D-299C-4406-BD9B-CD9E38BD0917}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm rot="7635360">
+          <a:off x="6612836" y="8262730"/>
+          <a:ext cx="622852" cy="887896"/>
+        </a:xfrm>
+        <a:prstGeom prst="downArrow">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259080</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>68580</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="3505200" cy="2524910"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="그림 1" descr="íìëìì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CE513D80-BCFC-4092-97BF-BE5FEE9F3A3B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="929640" y="731520"/>
+          <a:ext cx="3505200" cy="2524910"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>281940</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>121920</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5638800" cy="3474496"/>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2" descr="íìëìì ëí ì´ë¯¸ì§ ê²ìê²°ê³¼">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB675DA0-85AF-433A-AF1F-3601AE22E1E0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="952500" y="4099560"/>
+          <a:ext cx="5638800" cy="3474496"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -3515,8 +6098,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6265025" y="9166860"/>
-          <a:ext cx="1948421" cy="3930783"/>
+          <a:off x="6293799" y="9222278"/>
+          <a:ext cx="1958014" cy="3949965"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3970,140 +6553,6 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>502026</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>45720</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="그림 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{516C08F0-2BB6-4F51-B6A2-FF4ABEF37C4E}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="792480" y="297180"/>
-          <a:ext cx="6415146" cy="4610100"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>381001</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>53341</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>213360</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>58838</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="그림 5">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BCB5CE64-388E-42C8-9F0D-2A36322B8274}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill rotWithShape="1">
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect l="19778" t="7667" r="49585" b="72207"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3733801" y="3147061"/>
-          <a:ext cx="502919" cy="668437"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF">
-            <a:shade val="85000"/>
-          </a:srgbClr>
-        </a:solidFill>
-        <a:ln w="88900" cap="sq">
-          <a:solidFill>
-            <a:srgbClr val="C00000"/>
-          </a:solidFill>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:effectLst>
-          <a:outerShdw blurRad="55000" dist="18000" dir="5400000" algn="tl" rotWithShape="0">
-            <a:srgbClr val="000000">
-              <a:alpha val="40000"/>
-            </a:srgbClr>
-          </a:outerShdw>
-        </a:effectLst>
-        <a:scene3d>
-          <a:camera prst="orthographicFront"/>
-          <a:lightRig rig="twoPt" dir="t">
-            <a:rot lat="0" lon="0" rev="7200000"/>
-          </a:lightRig>
-        </a:scene3d>
-        <a:sp3d>
-          <a:bevelT w="25400" h="19050"/>
-          <a:contourClr>
-            <a:srgbClr val="FFFFFF"/>
-          </a:contourClr>
-        </a:sp3d>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -4410,317 +6859,317 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3734FCF-3CBB-4846-9DF2-814A7C630DFF}">
   <dimension ref="B1:O30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28:K28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.59765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+    <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="17"/>
-      <c r="D2" s="17"/>
-      <c r="E2" s="17"/>
-      <c r="F2" s="17"/>
-      <c r="G2" s="18"/>
-    </row>
-    <row r="3" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B3" s="19"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="20"/>
-      <c r="F3" s="20"/>
-      <c r="G3" s="21"/>
-    </row>
-    <row r="4" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="22"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="23"/>
-      <c r="G4" s="24"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="19"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="20"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21"/>
+      <c r="E3" s="21"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="22"/>
+    </row>
+    <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="23"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+      <c r="G4" s="25"/>
       <c r="I4" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B7" s="63" t="s">
-        <v>159</v>
-      </c>
-      <c r="C7" s="64"/>
-      <c r="D7" s="64"/>
-      <c r="E7" s="64"/>
-      <c r="F7" s="64"/>
-      <c r="G7" s="65"/>
-    </row>
-    <row r="8" spans="2:15" x14ac:dyDescent="0.3">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="C7" s="36"/>
+      <c r="D7" s="36"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="37"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="41" t="s">
-        <v>163</v>
-      </c>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="44"/>
-    </row>
-    <row r="9" spans="2:15" x14ac:dyDescent="0.3">
+        <v>138</v>
+      </c>
+      <c r="C8" s="38" t="s">
+        <v>141</v>
+      </c>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="39"/>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
-        <v>161</v>
-      </c>
-      <c r="C9" s="41" t="s">
-        <v>164</v>
-      </c>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="44"/>
-    </row>
-    <row r="10" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>139</v>
+      </c>
+      <c r="C9" s="38" t="s">
+        <v>142</v>
+      </c>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="39"/>
+    </row>
+    <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C10" s="43" t="s">
-        <v>165</v>
-      </c>
-      <c r="D10" s="43"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="45"/>
-    </row>
-    <row r="11" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="12" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B12" s="25" t="s">
+        <v>140</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>143</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="41"/>
+    </row>
+    <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="27"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="27"/>
+      <c r="H12" s="27"/>
+      <c r="I12" s="27"/>
+      <c r="J12" s="27"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="27"/>
+      <c r="N12" s="27"/>
+      <c r="O12" s="28"/>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="29" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="30"/>
+      <c r="L13" s="30"/>
+      <c r="M13" s="30"/>
+      <c r="N13" s="30"/>
+      <c r="O13" s="31"/>
+    </row>
+    <row r="14" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="B14" s="29" t="s">
+        <v>47</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="30"/>
+      <c r="M14" s="30"/>
+      <c r="N14" s="30"/>
+      <c r="O14" s="31"/>
+    </row>
+    <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B15" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+      <c r="L15" s="33"/>
+      <c r="M15" s="33"/>
+      <c r="N15" s="33"/>
+      <c r="O15" s="34"/>
+    </row>
+    <row r="17" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B18" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="12"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+      <c r="G18" s="13"/>
+    </row>
+    <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="16"/>
+    </row>
+    <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B21" s="42" t="s">
+        <v>2</v>
+      </c>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+      <c r="I21" s="43"/>
+      <c r="J21" s="43"/>
+      <c r="K21" s="44"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B22" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B23" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="31"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B24" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="31"/>
+    </row>
+    <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="33"/>
+      <c r="J25" s="33"/>
+      <c r="K25" s="34"/>
+    </row>
+    <row r="26" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B27" s="47" t="s">
         <v>59</v>
       </c>
-      <c r="C12" s="26"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="27"/>
-    </row>
-    <row r="13" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>46</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="29"/>
-      <c r="N13" s="29"/>
-      <c r="O13" s="30"/>
-    </row>
-    <row r="14" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>48</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="29"/>
-      <c r="O14" s="30"/>
-    </row>
-    <row r="15" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="C15" s="32"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-      <c r="H15" s="32"/>
-      <c r="I15" s="32"/>
-      <c r="J15" s="32"/>
-      <c r="K15" s="32"/>
-      <c r="L15" s="32"/>
-      <c r="M15" s="32"/>
-      <c r="N15" s="32"/>
-      <c r="O15" s="33"/>
-    </row>
-    <row r="17" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B18" s="10" t="s">
-        <v>1</v>
-      </c>
-      <c r="C18" s="11"/>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="12"/>
-    </row>
-    <row r="19" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="13"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="15"/>
-    </row>
-    <row r="20" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B21" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="35"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="35"/>
-      <c r="I21" s="35"/>
-      <c r="J21" s="35"/>
-      <c r="K21" s="36"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B22" s="28" t="s">
-        <v>3</v>
-      </c>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
-      <c r="E23" s="29"/>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
-      <c r="I23" s="29"/>
-      <c r="J23" s="29"/>
-      <c r="K23" s="30"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B24" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-      <c r="E24" s="29"/>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
-      <c r="I24" s="29"/>
-      <c r="J24" s="29"/>
-      <c r="K24" s="30"/>
-    </row>
-    <row r="25" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="C25" s="32"/>
-      <c r="D25" s="32"/>
-      <c r="E25" s="32"/>
-      <c r="F25" s="32"/>
-      <c r="G25" s="32"/>
-      <c r="H25" s="32"/>
-      <c r="I25" s="32"/>
-      <c r="J25" s="32"/>
-      <c r="K25" s="33"/>
-    </row>
-    <row r="26" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="37" t="s">
+      <c r="C27" s="48"/>
+      <c r="D27" s="48"/>
+      <c r="E27" s="48"/>
+      <c r="F27" s="48"/>
+      <c r="G27" s="48"/>
+      <c r="H27" s="48"/>
+      <c r="I27" s="48"/>
+      <c r="J27" s="48"/>
+      <c r="K27" s="49"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B28" s="45" t="s">
         <v>60</v>
       </c>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38"/>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="39"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="40" t="s">
+      <c r="C28" s="38"/>
+      <c r="D28" s="38"/>
+      <c r="E28" s="38" t="s">
+        <v>175</v>
+      </c>
+      <c r="F28" s="38"/>
+      <c r="G28" s="38"/>
+      <c r="H28" s="38"/>
+      <c r="I28" s="38"/>
+      <c r="J28" s="38"/>
+      <c r="K28" s="39"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.4">
+      <c r="B29" s="45" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="41"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41" t="s">
-        <v>209</v>
-      </c>
-      <c r="F28" s="41"/>
-      <c r="G28" s="41"/>
-      <c r="H28" s="41"/>
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="44"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="40" t="s">
+      <c r="C29" s="38"/>
+      <c r="D29" s="38"/>
+      <c r="E29" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="F29" s="38"/>
+      <c r="G29" s="38"/>
+      <c r="H29" s="38"/>
+      <c r="I29" s="38"/>
+      <c r="J29" s="38"/>
+      <c r="K29" s="39"/>
+    </row>
+    <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B30" s="46" t="s">
         <v>62</v>
       </c>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41" t="s">
-        <v>106</v>
-      </c>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="44"/>
-    </row>
-    <row r="30" spans="2:11" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B30" s="42" t="s">
-        <v>63</v>
-      </c>
-      <c r="C30" s="43"/>
-      <c r="D30" s="43"/>
-      <c r="E30" s="43" t="s">
-        <v>208</v>
-      </c>
-      <c r="F30" s="43"/>
-      <c r="G30" s="43"/>
-      <c r="H30" s="43"/>
-      <c r="I30" s="43"/>
-      <c r="J30" s="43"/>
-      <c r="K30" s="45"/>
+      <c r="C30" s="40"/>
+      <c r="D30" s="40"/>
+      <c r="E30" s="40" t="s">
+        <v>174</v>
+      </c>
+      <c r="F30" s="40"/>
+      <c r="G30" s="40"/>
+      <c r="H30" s="40"/>
+      <c r="I30" s="40"/>
+      <c r="J30" s="40"/>
+      <c r="K30" s="41"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -4755,210 +7204,366 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F9C461B-A25B-4497-98FF-B8CCBAD1342C}">
-  <dimension ref="B2:U44"/>
+  <dimension ref="B2:W47"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C61" sqref="C61"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AA27" sqref="AA27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B2" s="62" t="s">
-        <v>167</v>
-      </c>
-      <c r="C2" s="62"/>
-      <c r="D2" s="62"/>
-      <c r="E2" s="62"/>
-      <c r="F2" s="62"/>
-      <c r="G2" s="62"/>
-    </row>
-    <row r="3" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B3" s="62"/>
-      <c r="C3" s="62"/>
-      <c r="D3" s="62"/>
-      <c r="E3" s="62"/>
-      <c r="F3" s="62"/>
-      <c r="G3" s="62"/>
-      <c r="K3" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B4" s="62"/>
-      <c r="C4" s="62"/>
-      <c r="D4" s="62"/>
-      <c r="E4" s="62"/>
-      <c r="F4" s="62"/>
-      <c r="G4" s="62"/>
-    </row>
-    <row r="5" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="U5" t="s">
+    <row r="2" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B2" s="50" t="s">
+        <v>144</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="J2" s="50" t="s">
+        <v>159</v>
+      </c>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="50"/>
+      <c r="O2" s="50"/>
+      <c r="P2" s="50"/>
+      <c r="Q2" s="50"/>
+      <c r="R2" s="10"/>
+      <c r="S2" s="10"/>
+    </row>
+    <row r="3" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+    </row>
+    <row r="4" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+      <c r="M4" s="50"/>
+      <c r="N4" s="50"/>
+      <c r="O4" s="50"/>
+      <c r="P4" s="50"/>
+      <c r="Q4" s="50"/>
+      <c r="R4" s="10"/>
+      <c r="S4" s="10"/>
+    </row>
+    <row r="5" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="U5" s="50" t="s">
+        <v>156</v>
+      </c>
+      <c r="V5" s="50"/>
+      <c r="W5" s="50"/>
+    </row>
+    <row r="6" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="U6" s="50" t="s">
+        <v>157</v>
+      </c>
+      <c r="V6" s="50"/>
+      <c r="W6" s="50"/>
+    </row>
+    <row r="7" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B7" s="47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+    </row>
+    <row r="8" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B8" s="29" t="s">
+        <v>146</v>
+      </c>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="31"/>
+      <c r="Q8" s="50" t="s">
+        <v>160</v>
+      </c>
+      <c r="R8" s="50"/>
+      <c r="S8" s="50"/>
+    </row>
+    <row r="9" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B9" s="60" t="s">
+        <v>147</v>
+      </c>
+      <c r="C9" s="61"/>
+      <c r="D9" s="61"/>
+      <c r="E9" s="61"/>
+      <c r="F9" s="61"/>
+      <c r="G9" s="62"/>
+    </row>
+    <row r="10" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B10" s="60" t="s">
+        <v>148</v>
+      </c>
+      <c r="C10" s="61"/>
+      <c r="D10" s="61"/>
+      <c r="E10" s="61"/>
+      <c r="F10" s="61"/>
+      <c r="G10" s="62"/>
+    </row>
+    <row r="11" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B11" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C11" s="30"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="31"/>
+    </row>
+    <row r="12" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B12" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="30"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="31"/>
+      <c r="M12" s="50" t="s">
+        <v>158</v>
+      </c>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+    </row>
+    <row r="13" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B13" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C13" s="30"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="31"/>
+    </row>
+    <row r="14" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B14" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="31"/>
+    </row>
+    <row r="15" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B15" s="29" t="s">
+        <v>63</v>
+      </c>
+      <c r="C15" s="30"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="31"/>
+    </row>
+    <row r="16" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B16" s="29" t="s">
+        <v>57</v>
+      </c>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="31"/>
+    </row>
+    <row r="18" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="19" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="B19" s="54" t="s">
+        <v>206</v>
+      </c>
+      <c r="C19" s="56"/>
+    </row>
+    <row r="20" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B20" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="23" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="24" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="H24" s="54" t="s">
+        <v>149</v>
+      </c>
+      <c r="I24" s="55"/>
+      <c r="J24" s="55"/>
+      <c r="K24" s="56"/>
+    </row>
+    <row r="25" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="H25" s="29" t="s">
+        <v>150</v>
+      </c>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="31"/>
+    </row>
+    <row r="26" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="H26" s="29" t="s">
+        <v>151</v>
+      </c>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="31"/>
+    </row>
+    <row r="27" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H27" s="32" t="s">
+        <v>152</v>
+      </c>
+      <c r="I27" s="33"/>
+      <c r="J27" s="33"/>
+      <c r="K27" s="34"/>
+      <c r="T27" s="50" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="6" spans="2:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="U6" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B7" s="37" t="s">
-        <v>168</v>
-      </c>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="39"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B8" s="28" t="s">
-        <v>169</v>
-      </c>
-      <c r="C8" s="29"/>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="30"/>
-      <c r="R8" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B9" s="66" t="s">
-        <v>170</v>
-      </c>
-      <c r="C9" s="53"/>
-      <c r="D9" s="53"/>
-      <c r="E9" s="53"/>
-      <c r="F9" s="53"/>
-      <c r="G9" s="54"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B10" s="66" t="s">
-        <v>171</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10" s="53"/>
-      <c r="E10" s="53"/>
-      <c r="F10" s="53"/>
-      <c r="G10" s="54"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B11" s="28" t="s">
-        <v>54</v>
-      </c>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="30"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B12" s="28" t="s">
-        <v>55</v>
-      </c>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="30"/>
-      <c r="M12" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B13" s="28" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="30"/>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B14" s="28" t="s">
-        <v>57</v>
-      </c>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="30"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B15" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="C15" s="29"/>
-      <c r="D15" s="29"/>
-      <c r="E15" s="29"/>
-      <c r="F15" s="29"/>
-      <c r="G15" s="30"/>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.3">
-      <c r="B16" s="28" t="s">
-        <v>58</v>
-      </c>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="30"/>
-    </row>
-    <row r="24" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H24" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="25" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H25" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H26" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="27" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="H27" t="s">
-        <v>175</v>
-      </c>
-      <c r="T27" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="28" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="T28" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="31" spans="8:20" x14ac:dyDescent="0.3">
-      <c r="T31" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="44" spans="20:20" x14ac:dyDescent="0.3">
-      <c r="T44" t="s">
-        <v>180</v>
-      </c>
+      <c r="U27" s="50"/>
+      <c r="V27" s="50"/>
+      <c r="W27" s="50"/>
+    </row>
+    <row r="28" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="T28" s="50" t="s">
+        <v>153</v>
+      </c>
+      <c r="U28" s="50"/>
+      <c r="V28" s="50"/>
+      <c r="W28" s="50"/>
+    </row>
+    <row r="30" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="T30" s="50" t="s">
+        <v>154</v>
+      </c>
+      <c r="U30" s="50"/>
+      <c r="V30" s="50"/>
+      <c r="W30" s="50"/>
+    </row>
+    <row r="31" spans="2:23" x14ac:dyDescent="0.4">
+      <c r="T31" s="50"/>
+      <c r="U31" s="50"/>
+      <c r="V31" s="50"/>
+      <c r="W31" s="50"/>
+    </row>
+    <row r="43" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="44" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I44" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="J44" s="55"/>
+      <c r="K44" s="55"/>
+      <c r="L44" s="55"/>
+      <c r="M44" s="55"/>
+      <c r="N44" s="55"/>
+      <c r="O44" s="55"/>
+      <c r="P44" s="55"/>
+      <c r="Q44" s="56"/>
+      <c r="T44" s="50" t="s">
+        <v>155</v>
+      </c>
+      <c r="U44" s="50"/>
+      <c r="V44" s="50"/>
+      <c r="W44" s="50"/>
+    </row>
+    <row r="45" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I45" s="57" t="s">
+        <v>117</v>
+      </c>
+      <c r="J45" s="58"/>
+      <c r="K45" s="58"/>
+      <c r="L45" s="58"/>
+      <c r="M45" s="58"/>
+      <c r="N45" s="58"/>
+      <c r="O45" s="58"/>
+      <c r="P45" s="58"/>
+      <c r="Q45" s="59"/>
+      <c r="T45" s="50"/>
+      <c r="U45" s="50"/>
+      <c r="V45" s="50"/>
+      <c r="W45" s="50"/>
+    </row>
+    <row r="46" spans="9:23" x14ac:dyDescent="0.4">
+      <c r="I46" s="57" t="s">
+        <v>134</v>
+      </c>
+      <c r="J46" s="58"/>
+      <c r="K46" s="58"/>
+      <c r="L46" s="58"/>
+      <c r="M46" s="58"/>
+      <c r="N46" s="58"/>
+      <c r="O46" s="58"/>
+      <c r="P46" s="58"/>
+      <c r="Q46" s="59"/>
+    </row>
+    <row r="47" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="I47" s="51" t="s">
+        <v>135</v>
+      </c>
+      <c r="J47" s="52"/>
+      <c r="K47" s="52"/>
+      <c r="L47" s="52"/>
+      <c r="M47" s="52"/>
+      <c r="N47" s="52"/>
+      <c r="O47" s="52"/>
+      <c r="P47" s="52"/>
+      <c r="Q47" s="53"/>
     </row>
   </sheetData>
-  <mergeCells count="11">
+  <mergeCells count="29">
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="B10:G10"/>
     <mergeCell ref="B9:G9"/>
     <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="I45:Q45"/>
+    <mergeCell ref="I44:Q44"/>
+    <mergeCell ref="I46:Q46"/>
     <mergeCell ref="B15:G15"/>
     <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="I47:Q47"/>
+    <mergeCell ref="J2:Q4"/>
+    <mergeCell ref="H24:K24"/>
+    <mergeCell ref="H25:K25"/>
+    <mergeCell ref="H26:K26"/>
+    <mergeCell ref="H27:K27"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="Q8:S8"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="T44:W45"/>
+    <mergeCell ref="T30:W31"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4967,129 +7572,473 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B678A46-27AC-4250-B4B7-664EC4509004}">
-  <dimension ref="B3:H36"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94A4C58-65D2-4065-8D6A-0F7D1B50EE2F}">
+  <dimension ref="C2:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="H38" sqref="H38"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="2" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C2" s="50" t="s">
+        <v>116</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+    </row>
+    <row r="4" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
+    </row>
+    <row r="6" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="N6" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="7" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="N7" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="10" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="M10" s="50"/>
+      <c r="N10" s="50"/>
+      <c r="O10" s="50" t="s">
+        <v>178</v>
+      </c>
+      <c r="P10" s="50"/>
+      <c r="Q10" s="50"/>
+      <c r="R10" s="50"/>
+      <c r="S10" s="50"/>
+    </row>
+    <row r="11" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="M11" s="50"/>
+      <c r="N11" s="50"/>
+      <c r="O11" s="50" t="s">
+        <v>179</v>
+      </c>
+      <c r="P11" s="50"/>
+      <c r="Q11" s="50"/>
+      <c r="R11" s="50"/>
+      <c r="S11" s="50"/>
+    </row>
+    <row r="12" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="M12" s="50"/>
+      <c r="N12" s="50"/>
+      <c r="O12" s="50"/>
+      <c r="P12" s="50"/>
+      <c r="Q12" s="50"/>
+      <c r="R12" s="50"/>
+      <c r="S12" s="50"/>
+    </row>
+    <row r="13" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="M13" s="50"/>
+      <c r="N13" s="50"/>
+      <c r="O13" s="50"/>
+      <c r="P13" s="50"/>
+      <c r="Q13" s="50"/>
+      <c r="R13" s="50"/>
+      <c r="S13" s="50"/>
+    </row>
+    <row r="14" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="M14" s="50"/>
+      <c r="N14" s="50"/>
+      <c r="O14" s="50"/>
+      <c r="P14" s="50"/>
+      <c r="Q14" s="50"/>
+      <c r="R14" s="50"/>
+      <c r="S14" s="50"/>
+    </row>
+    <row r="16" spans="3:19" x14ac:dyDescent="0.4">
+      <c r="P16" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="17" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="P17" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="P18" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="P25" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="26" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="P26" t="s">
         <v>186</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H6" t="s">
+    <row r="27" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="P27" t="s">
         <v>187</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H7" t="s">
+    <row r="28" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="P28" t="s">
         <v>188</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H8" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H9" t="s">
+    <row r="29" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="66" t="s">
+        <v>203</v>
+      </c>
+      <c r="D29" s="67"/>
+      <c r="E29" s="67"/>
+      <c r="F29" s="67"/>
+      <c r="G29" s="68"/>
+    </row>
+    <row r="30" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C30" s="63" t="s">
+        <v>204</v>
+      </c>
+      <c r="D30" s="64"/>
+      <c r="E30" s="64"/>
+      <c r="F30" s="64"/>
+      <c r="G30" s="64"/>
+      <c r="H30" s="64"/>
+      <c r="I30" s="64"/>
+      <c r="J30" s="64"/>
+      <c r="K30" s="64"/>
+      <c r="L30" s="64"/>
+      <c r="M30" s="64"/>
+      <c r="N30" s="64"/>
+      <c r="O30" s="64"/>
+      <c r="P30" s="64"/>
+      <c r="Q30" s="64"/>
+      <c r="R30" s="65"/>
+    </row>
+    <row r="31" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C31" s="45"/>
+      <c r="D31" s="38"/>
+      <c r="E31" s="69" t="s">
+        <v>193</v>
+      </c>
+      <c r="F31" s="69"/>
+      <c r="G31" s="69"/>
+      <c r="H31" s="69"/>
+      <c r="I31" s="69"/>
+      <c r="J31" s="38"/>
+      <c r="K31" s="38"/>
+      <c r="L31" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="M31" s="38"/>
+      <c r="N31" s="38"/>
+      <c r="O31" s="38"/>
+      <c r="P31" s="38"/>
+      <c r="Q31" s="38"/>
+      <c r="R31" s="39"/>
+    </row>
+    <row r="32" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C32" s="45"/>
+      <c r="D32" s="38"/>
+      <c r="E32" s="70" t="s">
         <v>190</v>
       </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H11" t="s">
+      <c r="F32" s="70"/>
+      <c r="G32" s="70"/>
+      <c r="H32" s="70"/>
+      <c r="I32" s="70"/>
+      <c r="J32" s="38"/>
+      <c r="K32" s="38"/>
+      <c r="L32" s="30" t="s">
+        <v>194</v>
+      </c>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="30"/>
+      <c r="P32" s="30"/>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="31"/>
+    </row>
+    <row r="33" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C33" s="45"/>
+      <c r="D33" s="38"/>
+      <c r="E33" s="70" t="s">
         <v>191</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H13" t="s">
+      <c r="F33" s="70"/>
+      <c r="G33" s="70"/>
+      <c r="H33" s="70"/>
+      <c r="I33" s="70"/>
+      <c r="J33" s="38"/>
+      <c r="K33" s="38"/>
+      <c r="L33" s="30" t="s">
+        <v>195</v>
+      </c>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="30"/>
+      <c r="P33" s="30"/>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="31"/>
+    </row>
+    <row r="34" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C34" s="45"/>
+      <c r="D34" s="38"/>
+      <c r="E34" s="70" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H14" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H16" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="B20" t="s">
-        <v>195</v>
-      </c>
-      <c r="C20" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H22" t="s">
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
+      <c r="I34" s="70"/>
+      <c r="J34" s="38"/>
+      <c r="K34" s="38"/>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="30"/>
+      <c r="P34" s="30"/>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="31"/>
+    </row>
+    <row r="35" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C35" s="45"/>
+      <c r="D35" s="38"/>
+      <c r="E35" s="38"/>
+      <c r="F35" s="38"/>
+      <c r="G35" s="38"/>
+      <c r="H35" s="38"/>
+      <c r="I35" s="38"/>
+      <c r="J35" s="38"/>
+      <c r="K35" s="38"/>
+      <c r="L35" s="38"/>
+      <c r="M35" s="38"/>
+      <c r="N35" s="38"/>
+      <c r="O35" s="38"/>
+      <c r="P35" s="38"/>
+      <c r="Q35" s="38"/>
+      <c r="R35" s="39"/>
+    </row>
+    <row r="36" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C36" s="45"/>
+      <c r="D36" s="38"/>
+      <c r="E36" s="38" t="s">
+        <v>199</v>
+      </c>
+      <c r="F36" s="38"/>
+      <c r="G36" s="38"/>
+      <c r="H36" s="38"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="38"/>
+      <c r="K36" s="38"/>
+      <c r="L36" s="38" t="s">
+        <v>23</v>
+      </c>
+      <c r="M36" s="38"/>
+      <c r="N36" s="38"/>
+      <c r="O36" s="38"/>
+      <c r="P36" s="38"/>
+      <c r="Q36" s="38"/>
+      <c r="R36" s="39"/>
+    </row>
+    <row r="37" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C37" s="45"/>
+      <c r="D37" s="38"/>
+      <c r="E37" s="30" t="s">
+        <v>200</v>
+      </c>
+      <c r="F37" s="30"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="38"/>
+      <c r="K37" s="38"/>
+      <c r="L37" s="30" t="s">
         <v>196</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H23" t="s">
+      <c r="M37" s="30"/>
+      <c r="N37" s="30"/>
+      <c r="O37" s="30"/>
+      <c r="P37" s="30"/>
+      <c r="Q37" s="30"/>
+      <c r="R37" s="31"/>
+    </row>
+    <row r="38" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C38" s="45"/>
+      <c r="D38" s="38"/>
+      <c r="E38" s="30" t="s">
+        <v>201</v>
+      </c>
+      <c r="F38" s="30"/>
+      <c r="G38" s="30"/>
+      <c r="H38" s="30"/>
+      <c r="I38" s="30"/>
+      <c r="J38" s="38"/>
+      <c r="K38" s="38"/>
+      <c r="L38" s="30" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H24" t="s">
+      <c r="M38" s="30"/>
+      <c r="N38" s="30"/>
+      <c r="O38" s="30"/>
+      <c r="P38" s="30"/>
+      <c r="Q38" s="30"/>
+      <c r="R38" s="31"/>
+    </row>
+    <row r="39" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C39" s="46"/>
+      <c r="D39" s="40"/>
+      <c r="E39" s="33" t="s">
+        <v>202</v>
+      </c>
+      <c r="F39" s="33"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="33"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="40"/>
+      <c r="K39" s="40"/>
+      <c r="L39" s="33" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H25" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H27" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H28" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H29" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H31" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
-      <c r="H32" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H35" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="36" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H36" t="s">
-        <v>207</v>
+      <c r="M39" s="33"/>
+      <c r="N39" s="33"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="33"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="34"/>
+    </row>
+    <row r="41" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C41" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="42" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="C42" t="s">
+        <v>219</v>
+      </c>
+      <c r="K42" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="43" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D43" t="s">
+        <v>211</v>
+      </c>
+      <c r="L43" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="44" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D44" t="s">
+        <v>212</v>
+      </c>
+      <c r="L44" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="45" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="L45" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="47" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D47" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="48" spans="3:18" x14ac:dyDescent="0.4">
+      <c r="D48" t="s">
+        <v>214</v>
+      </c>
+      <c r="L48" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="49" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D49" t="s">
+        <v>218</v>
+      </c>
+      <c r="L49" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="50" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="L50" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="51" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D51" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="52" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D52" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="53" spans="4:12" x14ac:dyDescent="0.4">
+      <c r="D53" t="s">
+        <v>217</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="27">
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="C36:D39"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="J36:K39"/>
+    <mergeCell ref="C2:L4"/>
+    <mergeCell ref="L31:R31"/>
+    <mergeCell ref="J31:K34"/>
+    <mergeCell ref="C30:R30"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="M10:N14"/>
+    <mergeCell ref="O11:S14"/>
+    <mergeCell ref="C29:G29"/>
+    <mergeCell ref="C31:D34"/>
+    <mergeCell ref="E31:I31"/>
+    <mergeCell ref="E32:I32"/>
+    <mergeCell ref="E33:I33"/>
+    <mergeCell ref="E34:I34"/>
+    <mergeCell ref="L34:R34"/>
+    <mergeCell ref="L33:R33"/>
+    <mergeCell ref="L32:R32"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -5097,538 +8046,1238 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B678A46-27AC-4250-B4B7-664EC4509004}">
+  <dimension ref="B1:O56"/>
+  <sheetViews>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="4" max="5" width="11.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.09765625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B2" s="10"/>
+      <c r="C2" s="54" t="s">
+        <v>232</v>
+      </c>
+      <c r="D2" s="55"/>
+      <c r="E2" s="55"/>
+      <c r="F2" s="55"/>
+      <c r="G2" s="55"/>
+      <c r="H2" s="55"/>
+      <c r="I2" s="55"/>
+      <c r="J2" s="55"/>
+      <c r="K2" s="55"/>
+      <c r="L2" s="56"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="B3" s="10"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="38"/>
+      <c r="H3" s="38"/>
+      <c r="I3" s="38"/>
+      <c r="J3" s="38"/>
+      <c r="K3" s="38"/>
+      <c r="L3" s="39"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C4" s="45"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38" t="s">
+        <v>226</v>
+      </c>
+      <c r="I4" s="85" t="s">
+        <v>227</v>
+      </c>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="86"/>
+      <c r="N4" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C5" s="45"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="85"/>
+      <c r="K5" s="85"/>
+      <c r="L5" s="86"/>
+      <c r="N5" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C6" s="45"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+      <c r="K6" s="85"/>
+      <c r="L6" s="86"/>
+      <c r="N6" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C7" s="45"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="85"/>
+      <c r="J7" s="85"/>
+      <c r="K7" s="85"/>
+      <c r="L7" s="86"/>
+      <c r="N7" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C8" s="45"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="85"/>
+      <c r="J8" s="85"/>
+      <c r="K8" s="85"/>
+      <c r="L8" s="86"/>
+      <c r="N8" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C9" s="45"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38" t="s">
+        <v>228</v>
+      </c>
+      <c r="I9" s="85" t="s">
+        <v>229</v>
+      </c>
+      <c r="J9" s="85"/>
+      <c r="K9" s="85"/>
+      <c r="L9" s="86"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C10" s="45"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="85"/>
+      <c r="J10" s="85"/>
+      <c r="K10" s="85"/>
+      <c r="L10" s="86"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C11" s="45"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="85"/>
+      <c r="J11" s="85"/>
+      <c r="K11" s="85"/>
+      <c r="L11" s="86"/>
+    </row>
+    <row r="12" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C12" s="46"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="87"/>
+      <c r="J12" s="87"/>
+      <c r="K12" s="87"/>
+      <c r="L12" s="88"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C14" s="50" t="s">
+        <v>236</v>
+      </c>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
+    </row>
+    <row r="15" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
+    </row>
+    <row r="16" spans="2:14" x14ac:dyDescent="0.4">
+      <c r="C16" s="50"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="50"/>
+      <c r="H16" s="50"/>
+      <c r="I16" s="50"/>
+      <c r="J16" s="50"/>
+      <c r="K16" s="50"/>
+      <c r="L16" s="50"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C17" s="50"/>
+      <c r="D17" s="50"/>
+      <c r="E17" s="50"/>
+      <c r="F17" s="50"/>
+      <c r="G17" s="50"/>
+      <c r="H17" s="50"/>
+      <c r="I17" s="50"/>
+      <c r="J17" s="50"/>
+      <c r="K17" s="50"/>
+      <c r="L17" s="50"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C18" s="50"/>
+      <c r="D18" s="50"/>
+      <c r="E18" s="50"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="50"/>
+      <c r="H18" s="50"/>
+      <c r="I18" s="50"/>
+      <c r="J18" s="50"/>
+      <c r="K18" s="50"/>
+      <c r="L18" s="50"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C19" s="50"/>
+      <c r="D19" s="50"/>
+      <c r="E19" s="50"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="50"/>
+      <c r="H19" s="50"/>
+      <c r="I19" s="50"/>
+      <c r="J19" s="50"/>
+      <c r="K19" s="50"/>
+      <c r="L19" s="50"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C20" s="50"/>
+      <c r="D20" s="50"/>
+      <c r="E20" s="50"/>
+      <c r="F20" s="50"/>
+      <c r="G20" s="50"/>
+      <c r="H20" s="50"/>
+      <c r="I20" s="50"/>
+      <c r="J20" s="50"/>
+      <c r="K20" s="50"/>
+      <c r="L20" s="50"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C21" s="50"/>
+      <c r="D21" s="50"/>
+      <c r="E21" s="50"/>
+      <c r="F21" s="50"/>
+      <c r="G21" s="50"/>
+      <c r="H21" s="50"/>
+      <c r="I21" s="50"/>
+      <c r="J21" s="50"/>
+      <c r="K21" s="50"/>
+      <c r="L21" s="50"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C22" s="50"/>
+      <c r="D22" s="50"/>
+      <c r="E22" s="50"/>
+      <c r="F22" s="50"/>
+      <c r="G22" s="50"/>
+      <c r="H22" s="50"/>
+      <c r="I22" s="50"/>
+      <c r="J22" s="50"/>
+      <c r="K22" s="50"/>
+      <c r="L22" s="50"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C23" s="50"/>
+      <c r="D23" s="50"/>
+      <c r="E23" s="50"/>
+      <c r="F23" s="50"/>
+      <c r="G23" s="50"/>
+      <c r="H23" s="50"/>
+      <c r="I23" s="50"/>
+      <c r="J23" s="50"/>
+      <c r="K23" s="50"/>
+      <c r="L23" s="50"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C24" s="50"/>
+      <c r="D24" s="50"/>
+      <c r="E24" s="50"/>
+      <c r="F24" s="50"/>
+      <c r="G24" s="50"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="50"/>
+      <c r="K24" s="50"/>
+      <c r="L24" s="50"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C25" s="50"/>
+      <c r="D25" s="50"/>
+      <c r="E25" s="50"/>
+      <c r="F25" s="50"/>
+      <c r="G25" s="50"/>
+      <c r="H25" s="50"/>
+      <c r="I25" s="50"/>
+      <c r="J25" s="50"/>
+      <c r="K25" s="50"/>
+      <c r="L25" s="50"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C26" s="50"/>
+      <c r="D26" s="50"/>
+      <c r="E26" s="50"/>
+      <c r="F26" s="50"/>
+      <c r="G26" s="50"/>
+      <c r="H26" s="50"/>
+      <c r="I26" s="50"/>
+      <c r="J26" s="50"/>
+      <c r="K26" s="50"/>
+      <c r="L26" s="50"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C27" s="50"/>
+      <c r="D27" s="50"/>
+      <c r="E27" s="50"/>
+      <c r="F27" s="50"/>
+      <c r="G27" s="50"/>
+      <c r="H27" s="50"/>
+      <c r="I27" s="50"/>
+      <c r="J27" s="50"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="50"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C29" s="30" t="s">
+        <v>244</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C30" s="30" t="s">
+        <v>245</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="30"/>
+      <c r="F30" s="30"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
+      <c r="L30" s="30"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C31" s="30" t="s">
+        <v>246</v>
+      </c>
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C32" s="30" t="s">
+        <v>247</v>
+      </c>
+      <c r="D32" s="30"/>
+      <c r="E32" s="30"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
+      <c r="L32" s="30"/>
+    </row>
+    <row r="35" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="K35" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="36" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="K36" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="L36" s="5" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="37" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="E37" t="s">
+        <v>243</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="39" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="L39" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="46" spans="5:12" x14ac:dyDescent="0.4">
+      <c r="H46" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="49" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="N49" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="O49" s="5" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="50" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="N50" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="O50" s="5" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="51" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="N51" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="O51" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="54" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="D54" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="E54" s="5" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="55" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="D55" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="I55" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="56" spans="4:15" x14ac:dyDescent="0.4">
+      <c r="D56" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="E56" s="5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="C14:L15"/>
+    <mergeCell ref="C16:L27"/>
+    <mergeCell ref="C29:L29"/>
+    <mergeCell ref="C30:L30"/>
+    <mergeCell ref="C31:L31"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="I4:L8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I9:L12"/>
+    <mergeCell ref="H9:H12"/>
+    <mergeCell ref="C2:L3"/>
+    <mergeCell ref="C4:G12"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{921B7072-58AE-4C32-BF44-E0A2C12922F9}">
+  <dimension ref="B2:O17"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K19" sqref="K19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
+  <sheetData>
+    <row r="2" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B2" s="50" t="s">
+        <v>225</v>
+      </c>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+    </row>
+    <row r="3" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="O3" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="4" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B4" s="50"/>
+      <c r="C4" s="50"/>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" t="s">
+        <v>234</v>
+      </c>
+      <c r="I4" t="s">
+        <v>235</v>
+      </c>
+      <c r="O4" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B5" s="50"/>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="50"/>
+      <c r="O5" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="O6" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+    </row>
+    <row r="8" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="O8" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="O9" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="10" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="O10" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+    </row>
+    <row r="12" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B12" s="50"/>
+      <c r="C12" s="50"/>
+      <c r="D12" s="50"/>
+      <c r="E12" s="50"/>
+      <c r="F12" s="50"/>
+      <c r="G12" s="50"/>
+      <c r="O12" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B13" s="50"/>
+      <c r="C13" s="50"/>
+      <c r="D13" s="50"/>
+      <c r="E13" s="50"/>
+      <c r="F13" s="50"/>
+      <c r="G13" s="50"/>
+      <c r="O13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B14" s="50"/>
+      <c r="C14" s="50"/>
+      <c r="D14" s="50"/>
+      <c r="E14" s="50"/>
+      <c r="F14" s="50"/>
+      <c r="G14" s="50"/>
+    </row>
+    <row r="15" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B15" s="50"/>
+      <c r="C15" s="50"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="50"/>
+      <c r="G15" s="50"/>
+      <c r="O15" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="16" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="O16" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="17" spans="15:15" x14ac:dyDescent="0.4">
+      <c r="O17" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B2:L3"/>
+    <mergeCell ref="B4:G15"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94EF0798-714A-441A-930A-3BD8B9BD17CD}">
   <dimension ref="B2:T30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:T13"/>
+      <selection activeCell="C7" sqref="C7:T7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B3" s="46" t="s">
+    <row r="2" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B3" s="71" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="48"/>
-    </row>
-    <row r="4" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="49"/>
-      <c r="C4" s="50"/>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="51"/>
-    </row>
-    <row r="5" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C3" s="72"/>
+      <c r="D3" s="72"/>
+      <c r="E3" s="72"/>
+      <c r="F3" s="72"/>
+      <c r="G3" s="73"/>
+    </row>
+    <row r="4" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B4" s="74"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
+      <c r="F4" s="75"/>
+      <c r="G4" s="76"/>
+    </row>
+    <row r="5" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="35" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="35"/>
-      <c r="E6" s="35"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="35"/>
-      <c r="H6" s="35"/>
-      <c r="I6" s="35"/>
-      <c r="J6" s="35"/>
-      <c r="K6" s="35"/>
-      <c r="L6" s="35"/>
-      <c r="M6" s="35"/>
-      <c r="N6" s="35"/>
-      <c r="O6" s="35"/>
-      <c r="P6" s="35"/>
-      <c r="Q6" s="35"/>
-      <c r="R6" s="35"/>
-      <c r="S6" s="35"/>
-      <c r="T6" s="36"/>
-    </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C6" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="43"/>
+      <c r="J6" s="43"/>
+      <c r="K6" s="43"/>
+      <c r="L6" s="43"/>
+      <c r="M6" s="43"/>
+      <c r="N6" s="43"/>
+      <c r="O6" s="43"/>
+      <c r="P6" s="43"/>
+      <c r="Q6" s="43"/>
+      <c r="R6" s="43"/>
+      <c r="S6" s="43"/>
+      <c r="T6" s="44"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C7" s="77" t="s">
         <v>65</v>
       </c>
-      <c r="C7" s="52" t="s">
-        <v>66</v>
-      </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="53"/>
-      <c r="G7" s="53"/>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
-      <c r="J7" s="53"/>
-      <c r="K7" s="53"/>
-      <c r="L7" s="53"/>
-      <c r="M7" s="53"/>
-      <c r="N7" s="53"/>
-      <c r="O7" s="53"/>
-      <c r="P7" s="53"/>
-      <c r="Q7" s="53"/>
-      <c r="R7" s="53"/>
-      <c r="S7" s="53"/>
-      <c r="T7" s="54"/>
-    </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D7" s="61"/>
+      <c r="E7" s="61"/>
+      <c r="F7" s="61"/>
+      <c r="G7" s="61"/>
+      <c r="H7" s="61"/>
+      <c r="I7" s="61"/>
+      <c r="J7" s="61"/>
+      <c r="K7" s="61"/>
+      <c r="L7" s="61"/>
+      <c r="M7" s="61"/>
+      <c r="N7" s="61"/>
+      <c r="O7" s="61"/>
+      <c r="P7" s="61"/>
+      <c r="Q7" s="61"/>
+      <c r="R7" s="61"/>
+      <c r="S7" s="61"/>
+      <c r="T7" s="62"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29"/>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
-      <c r="I8" s="29"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="29"/>
-      <c r="L8" s="29"/>
-      <c r="M8" s="29"/>
-      <c r="N8" s="29"/>
-      <c r="O8" s="29"/>
-      <c r="P8" s="29"/>
-      <c r="Q8" s="29"/>
-      <c r="R8" s="29"/>
-      <c r="S8" s="29"/>
-      <c r="T8" s="30"/>
-    </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C8" s="30" t="s">
+        <v>31</v>
+      </c>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="31"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="29" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
-      <c r="I9" s="29"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="29"/>
-      <c r="L9" s="29"/>
-      <c r="M9" s="29"/>
-      <c r="N9" s="29"/>
-      <c r="O9" s="29"/>
-      <c r="P9" s="29"/>
-      <c r="Q9" s="29"/>
-      <c r="R9" s="29"/>
-      <c r="S9" s="29"/>
-      <c r="T9" s="30"/>
-    </row>
-    <row r="10" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C9" s="30" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="30"/>
+      <c r="J9" s="30"/>
+      <c r="K9" s="30"/>
+      <c r="L9" s="30"/>
+      <c r="M9" s="30"/>
+      <c r="N9" s="30"/>
+      <c r="O9" s="30"/>
+      <c r="P9" s="30"/>
+      <c r="Q9" s="30"/>
+      <c r="R9" s="30"/>
+      <c r="S9" s="30"/>
+      <c r="T9" s="31"/>
+    </row>
+    <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="29"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="29"/>
-      <c r="N10" s="29"/>
-      <c r="O10" s="29"/>
-      <c r="P10" s="29"/>
-      <c r="Q10" s="29"/>
-      <c r="R10" s="29"/>
-      <c r="S10" s="29"/>
-      <c r="T10" s="30"/>
-    </row>
-    <row r="11" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C10" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="30"/>
+      <c r="M10" s="30"/>
+      <c r="N10" s="30"/>
+      <c r="O10" s="30"/>
+      <c r="P10" s="30"/>
+      <c r="Q10" s="30"/>
+      <c r="R10" s="30"/>
+      <c r="S10" s="30"/>
+      <c r="T10" s="31"/>
+    </row>
+    <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="29" t="s">
-        <v>33</v>
-      </c>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="29"/>
-      <c r="N11" s="29"/>
-      <c r="O11" s="29"/>
-      <c r="P11" s="29"/>
-      <c r="Q11" s="29"/>
-      <c r="R11" s="29"/>
-      <c r="S11" s="29"/>
-      <c r="T11" s="30"/>
-    </row>
-    <row r="12" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C11" s="30" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="30"/>
+      <c r="M11" s="30"/>
+      <c r="N11" s="30"/>
+      <c r="O11" s="30"/>
+      <c r="P11" s="30"/>
+      <c r="Q11" s="30"/>
+      <c r="R11" s="30"/>
+      <c r="S11" s="30"/>
+      <c r="T11" s="31"/>
+    </row>
+    <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="29" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
-      <c r="I12" s="29"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="29"/>
-      <c r="N12" s="29"/>
-      <c r="O12" s="29"/>
-      <c r="P12" s="29"/>
-      <c r="Q12" s="29"/>
-      <c r="R12" s="29"/>
-      <c r="S12" s="29"/>
-      <c r="T12" s="30"/>
-    </row>
-    <row r="13" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C12" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="30"/>
+      <c r="M12" s="30"/>
+      <c r="N12" s="30"/>
+      <c r="O12" s="30"/>
+      <c r="P12" s="30"/>
+      <c r="Q12" s="30"/>
+      <c r="R12" s="30"/>
+      <c r="S12" s="30"/>
+      <c r="T12" s="31"/>
+    </row>
+    <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>147</v>
-      </c>
-      <c r="D13" s="53"/>
-      <c r="E13" s="53"/>
-      <c r="F13" s="53"/>
-      <c r="G13" s="53"/>
-      <c r="H13" s="53"/>
-      <c r="I13" s="53"/>
-      <c r="J13" s="53"/>
-      <c r="K13" s="53"/>
-      <c r="L13" s="53"/>
-      <c r="M13" s="53"/>
-      <c r="N13" s="53"/>
-      <c r="O13" s="53"/>
-      <c r="P13" s="53"/>
-      <c r="Q13" s="53"/>
-      <c r="R13" s="53"/>
-      <c r="S13" s="53"/>
-      <c r="T13" s="54"/>
-    </row>
-    <row r="14" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+        <v>131</v>
+      </c>
+      <c r="C13" s="77" t="s">
+        <v>133</v>
+      </c>
+      <c r="D13" s="61"/>
+      <c r="E13" s="61"/>
+      <c r="F13" s="61"/>
+      <c r="G13" s="61"/>
+      <c r="H13" s="61"/>
+      <c r="I13" s="61"/>
+      <c r="J13" s="61"/>
+      <c r="K13" s="61"/>
+      <c r="L13" s="61"/>
+      <c r="M13" s="61"/>
+      <c r="N13" s="61"/>
+      <c r="O13" s="61"/>
+      <c r="P13" s="61"/>
+      <c r="Q13" s="61"/>
+      <c r="R13" s="61"/>
+      <c r="S13" s="61"/>
+      <c r="T13" s="62"/>
+    </row>
+    <row r="14" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-      <c r="H14" s="32"/>
-      <c r="I14" s="32"/>
-      <c r="J14" s="32"/>
-      <c r="K14" s="32"/>
-      <c r="L14" s="32"/>
-      <c r="M14" s="32"/>
-      <c r="N14" s="32"/>
-      <c r="O14" s="32"/>
-      <c r="P14" s="32"/>
-      <c r="Q14" s="32"/>
-      <c r="R14" s="32"/>
-      <c r="S14" s="32"/>
-      <c r="T14" s="33"/>
-    </row>
-    <row r="15" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B16" s="37" t="s">
+      <c r="C14" s="33" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+      <c r="L14" s="33"/>
+      <c r="M14" s="33"/>
+      <c r="N14" s="33"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="34"/>
+    </row>
+    <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="16" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B16" s="47" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="38"/>
-      <c r="D16" s="38"/>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="39"/>
-    </row>
-    <row r="17" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
+      <c r="H16" s="48"/>
+      <c r="I16" s="48"/>
+      <c r="J16" s="48"/>
+      <c r="K16" s="49"/>
+    </row>
+    <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="29" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="29"/>
-      <c r="K17" s="30"/>
-    </row>
-    <row r="18" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C17" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="31"/>
+    </row>
+    <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="29" t="s">
-        <v>38</v>
-      </c>
-      <c r="D18" s="29"/>
-      <c r="E18" s="29"/>
-      <c r="F18" s="29"/>
-      <c r="G18" s="29"/>
-      <c r="H18" s="29"/>
-      <c r="I18" s="29"/>
-      <c r="J18" s="29"/>
-      <c r="K18" s="30"/>
-    </row>
-    <row r="19" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C18" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="30"/>
+      <c r="J18" s="30"/>
+      <c r="K18" s="31"/>
+    </row>
+    <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="29" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="29"/>
-      <c r="G19" s="29"/>
-      <c r="H19" s="29"/>
-      <c r="I19" s="29"/>
-      <c r="J19" s="29"/>
-      <c r="K19" s="30"/>
-    </row>
-    <row r="20" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C19" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="30"/>
+      <c r="J19" s="30"/>
+      <c r="K19" s="31"/>
+    </row>
+    <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="29" t="s">
-        <v>40</v>
-      </c>
-      <c r="D20" s="29"/>
-      <c r="E20" s="29"/>
-      <c r="F20" s="29"/>
-      <c r="G20" s="29"/>
-      <c r="H20" s="29"/>
-      <c r="I20" s="29"/>
-      <c r="J20" s="29"/>
-      <c r="K20" s="30"/>
-    </row>
-    <row r="21" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C20" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="31"/>
+    </row>
+    <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="D21" s="29"/>
-      <c r="E21" s="29"/>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29"/>
-      <c r="H21" s="29"/>
-      <c r="I21" s="29"/>
-      <c r="J21" s="29"/>
-      <c r="K21" s="30"/>
-    </row>
-    <row r="22" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C21" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="31"/>
+    </row>
+    <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D22" s="29"/>
-      <c r="E22" s="29"/>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
-      <c r="I22" s="29"/>
-      <c r="J22" s="29"/>
-      <c r="K22" s="30"/>
-    </row>
-    <row r="23" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="30"/>
+      <c r="K22" s="31"/>
+    </row>
+    <row r="23" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="32" t="s">
-        <v>42</v>
-      </c>
-      <c r="D23" s="32"/>
-      <c r="E23" s="32"/>
-      <c r="F23" s="32"/>
-      <c r="G23" s="32"/>
-      <c r="H23" s="32"/>
-      <c r="I23" s="32"/>
-      <c r="J23" s="32"/>
-      <c r="K23" s="33"/>
-    </row>
-    <row r="24" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="25" spans="2:20" x14ac:dyDescent="0.3">
-      <c r="B25" s="37" t="s">
+      <c r="C23" s="33" t="s">
+        <v>41</v>
+      </c>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="33"/>
+      <c r="G23" s="33"/>
+      <c r="H23" s="33"/>
+      <c r="I23" s="33"/>
+      <c r="J23" s="33"/>
+      <c r="K23" s="34"/>
+    </row>
+    <row r="24" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="25" spans="2:20" x14ac:dyDescent="0.4">
+      <c r="B25" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="38"/>
-      <c r="D25" s="38"/>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38"/>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
-      <c r="M25" s="38"/>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
-      <c r="Q25" s="38"/>
-      <c r="R25" s="38"/>
-      <c r="S25" s="38"/>
-      <c r="T25" s="39"/>
-    </row>
-    <row r="26" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="C25" s="48"/>
+      <c r="D25" s="48"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="48"/>
+      <c r="G25" s="48"/>
+      <c r="H25" s="48"/>
+      <c r="I25" s="48"/>
+      <c r="J25" s="48"/>
+      <c r="K25" s="48"/>
+      <c r="L25" s="48"/>
+      <c r="M25" s="48"/>
+      <c r="N25" s="48"/>
+      <c r="O25" s="48"/>
+      <c r="P25" s="48"/>
+      <c r="Q25" s="48"/>
+      <c r="R25" s="48"/>
+      <c r="S25" s="48"/>
+      <c r="T25" s="49"/>
+    </row>
+    <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="29" t="s">
+      <c r="C26" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="29"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
-      <c r="I26" s="29"/>
-      <c r="J26" s="29"/>
-      <c r="K26" s="29"/>
-      <c r="L26" s="29"/>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="30"/>
-    </row>
-    <row r="27" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D26" s="30"/>
+      <c r="E26" s="30"/>
+      <c r="F26" s="30"/>
+      <c r="G26" s="30"/>
+      <c r="H26" s="30"/>
+      <c r="I26" s="30"/>
+      <c r="J26" s="30"/>
+      <c r="K26" s="30"/>
+      <c r="L26" s="30"/>
+      <c r="M26" s="30"/>
+      <c r="N26" s="30"/>
+      <c r="O26" s="30"/>
+      <c r="P26" s="30"/>
+      <c r="Q26" s="30"/>
+      <c r="R26" s="30"/>
+      <c r="S26" s="30"/>
+      <c r="T26" s="31"/>
+    </row>
+    <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="29" t="s">
+      <c r="C27" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="29"/>
-      <c r="E27" s="29"/>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-      <c r="H27" s="29"/>
-      <c r="I27" s="29"/>
-      <c r="J27" s="29"/>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="29"/>
-      <c r="N27" s="29"/>
-      <c r="O27" s="29"/>
-      <c r="P27" s="29"/>
-      <c r="Q27" s="29"/>
-      <c r="R27" s="29"/>
-      <c r="S27" s="29"/>
-      <c r="T27" s="30"/>
-    </row>
-    <row r="28" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D27" s="30"/>
+      <c r="E27" s="30"/>
+      <c r="F27" s="30"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
+      <c r="L27" s="30"/>
+      <c r="M27" s="30"/>
+      <c r="N27" s="30"/>
+      <c r="O27" s="30"/>
+      <c r="P27" s="30"/>
+      <c r="Q27" s="30"/>
+      <c r="R27" s="30"/>
+      <c r="S27" s="30"/>
+      <c r="T27" s="31"/>
+    </row>
+    <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="29" t="s">
+      <c r="C28" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="29"/>
-      <c r="E28" s="29"/>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-      <c r="H28" s="29"/>
-      <c r="I28" s="29"/>
-      <c r="J28" s="29"/>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="29"/>
-      <c r="N28" s="29"/>
-      <c r="O28" s="29"/>
-      <c r="P28" s="29"/>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="29"/>
-      <c r="S28" s="29"/>
-      <c r="T28" s="30"/>
-    </row>
-    <row r="29" spans="2:20" x14ac:dyDescent="0.3">
+      <c r="D28" s="30"/>
+      <c r="E28" s="30"/>
+      <c r="F28" s="30"/>
+      <c r="G28" s="30"/>
+      <c r="H28" s="30"/>
+      <c r="I28" s="30"/>
+      <c r="J28" s="30"/>
+      <c r="K28" s="30"/>
+      <c r="L28" s="30"/>
+      <c r="M28" s="30"/>
+      <c r="N28" s="30"/>
+      <c r="O28" s="30"/>
+      <c r="P28" s="30"/>
+      <c r="Q28" s="30"/>
+      <c r="R28" s="30"/>
+      <c r="S28" s="30"/>
+      <c r="T28" s="31"/>
+    </row>
+    <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="29" t="s">
-        <v>44</v>
-      </c>
-      <c r="D29" s="29"/>
-      <c r="E29" s="29"/>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-      <c r="H29" s="29"/>
-      <c r="I29" s="29"/>
-      <c r="J29" s="29"/>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="30"/>
-    </row>
-    <row r="30" spans="2:20" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="30"/>
+      <c r="E29" s="30"/>
+      <c r="F29" s="30"/>
+      <c r="G29" s="30"/>
+      <c r="H29" s="30"/>
+      <c r="I29" s="30"/>
+      <c r="J29" s="30"/>
+      <c r="K29" s="30"/>
+      <c r="L29" s="30"/>
+      <c r="M29" s="30"/>
+      <c r="N29" s="30"/>
+      <c r="O29" s="30"/>
+      <c r="P29" s="30"/>
+      <c r="Q29" s="30"/>
+      <c r="R29" s="30"/>
+      <c r="S29" s="30"/>
+      <c r="T29" s="31"/>
+    </row>
+    <row r="30" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="32" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="32"/>
-      <c r="E30" s="32"/>
-      <c r="F30" s="32"/>
-      <c r="G30" s="32"/>
-      <c r="H30" s="32"/>
-      <c r="I30" s="32"/>
-      <c r="J30" s="32"/>
-      <c r="K30" s="32"/>
-      <c r="L30" s="32"/>
-      <c r="M30" s="32"/>
-      <c r="N30" s="32"/>
-      <c r="O30" s="32"/>
-      <c r="P30" s="32"/>
-      <c r="Q30" s="32"/>
-      <c r="R30" s="32"/>
-      <c r="S30" s="32"/>
-      <c r="T30" s="33"/>
+      <c r="C30" s="33" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
+      <c r="M30" s="33"/>
+      <c r="N30" s="33"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="33"/>
+      <c r="Q30" s="33"/>
+      <c r="R30" s="33"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="24">
@@ -5663,282 +9312,282 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{840EDFFE-FFEE-443A-966C-325402643F07}">
   <dimension ref="B1:O41"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="O41" sqref="O41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="1" spans="2:13" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="2" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B2" s="37" t="s">
+    <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="2" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B2" s="47" t="s">
+        <v>48</v>
+      </c>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="48"/>
+      <c r="J2" s="48"/>
+      <c r="K2" s="48"/>
+      <c r="L2" s="48"/>
+      <c r="M2" s="49"/>
+    </row>
+    <row r="3" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B3" s="79"/>
+      <c r="C3" s="80"/>
+      <c r="D3" s="80"/>
+      <c r="E3" s="80"/>
+      <c r="F3" s="80"/>
+      <c r="G3" s="80"/>
+      <c r="H3" s="80"/>
+      <c r="I3" s="80"/>
+      <c r="J3" s="80"/>
+      <c r="K3" s="80"/>
+      <c r="L3" s="80"/>
+      <c r="M3" s="81"/>
+    </row>
+    <row r="4" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B4" s="45"/>
+      <c r="C4" s="38"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="38"/>
+      <c r="G4" s="38"/>
+      <c r="H4" s="38"/>
+      <c r="I4" s="38"/>
+      <c r="J4" s="38"/>
+      <c r="K4" s="38"/>
+      <c r="L4" s="38"/>
+      <c r="M4" s="39"/>
+    </row>
+    <row r="5" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B5" s="45"/>
+      <c r="C5" s="38"/>
+      <c r="D5" s="38"/>
+      <c r="E5" s="38"/>
+      <c r="F5" s="38"/>
+      <c r="G5" s="38"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="38"/>
+      <c r="J5" s="38"/>
+      <c r="K5" s="38"/>
+      <c r="L5" s="38"/>
+      <c r="M5" s="39"/>
+    </row>
+    <row r="6" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B6" s="45"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38"/>
+      <c r="M6" s="39"/>
+    </row>
+    <row r="7" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B7" s="45"/>
+      <c r="C7" s="38"/>
+      <c r="D7" s="38"/>
+      <c r="E7" s="38"/>
+      <c r="F7" s="38"/>
+      <c r="G7" s="38"/>
+      <c r="H7" s="38"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="38"/>
+      <c r="K7" s="38"/>
+      <c r="L7" s="38"/>
+      <c r="M7" s="39"/>
+    </row>
+    <row r="8" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B8" s="45"/>
+      <c r="C8" s="38"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="38"/>
+      <c r="G8" s="38"/>
+      <c r="H8" s="38"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="38"/>
+      <c r="K8" s="38"/>
+      <c r="L8" s="38"/>
+      <c r="M8" s="39"/>
+    </row>
+    <row r="9" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B9" s="45"/>
+      <c r="C9" s="38"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="38"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="38"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="38"/>
+      <c r="K9" s="38"/>
+      <c r="L9" s="38"/>
+      <c r="M9" s="39"/>
+    </row>
+    <row r="10" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B10" s="45"/>
+      <c r="C10" s="38"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="38"/>
+      <c r="G10" s="38"/>
+      <c r="H10" s="38"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="38"/>
+      <c r="K10" s="38"/>
+      <c r="L10" s="38"/>
+      <c r="M10" s="39"/>
+    </row>
+    <row r="11" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B11" s="45"/>
+      <c r="C11" s="38"/>
+      <c r="D11" s="38"/>
+      <c r="E11" s="38"/>
+      <c r="F11" s="38"/>
+      <c r="G11" s="38"/>
+      <c r="H11" s="38"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="38"/>
+      <c r="K11" s="38"/>
+      <c r="L11" s="38"/>
+      <c r="M11" s="39"/>
+    </row>
+    <row r="12" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B12" s="45"/>
+      <c r="C12" s="38"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="38"/>
+      <c r="G12" s="38"/>
+      <c r="H12" s="38"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="38"/>
+      <c r="K12" s="38"/>
+      <c r="L12" s="38"/>
+      <c r="M12" s="39"/>
+    </row>
+    <row r="13" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B13" s="45"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
+      <c r="E13" s="38"/>
+      <c r="F13" s="38"/>
+      <c r="G13" s="38"/>
+      <c r="H13" s="38"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="38"/>
+      <c r="K13" s="38"/>
+      <c r="L13" s="38"/>
+      <c r="M13" s="39"/>
+    </row>
+    <row r="14" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B14" s="45"/>
+      <c r="C14" s="38"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="38"/>
+      <c r="G14" s="38"/>
+      <c r="H14" s="38"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="38"/>
+      <c r="K14" s="38"/>
+      <c r="L14" s="38"/>
+      <c r="M14" s="39"/>
+    </row>
+    <row r="15" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B15" s="45"/>
+      <c r="C15" s="38"/>
+      <c r="D15" s="38"/>
+      <c r="E15" s="38"/>
+      <c r="F15" s="38"/>
+      <c r="G15" s="38"/>
+      <c r="H15" s="38"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="38"/>
+      <c r="K15" s="38"/>
+      <c r="L15" s="38"/>
+      <c r="M15" s="39"/>
+    </row>
+    <row r="16" spans="2:13" x14ac:dyDescent="0.4">
+      <c r="B16" s="82"/>
+      <c r="C16" s="83"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="83"/>
+      <c r="F16" s="83"/>
+      <c r="G16" s="83"/>
+      <c r="H16" s="83"/>
+      <c r="I16" s="83"/>
+      <c r="J16" s="83"/>
+      <c r="K16" s="83"/>
+      <c r="L16" s="83"/>
+      <c r="M16" s="84"/>
+    </row>
+    <row r="17" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B17" s="79" t="s">
         <v>49</v>
       </c>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
-      <c r="H2" s="38"/>
-      <c r="I2" s="38"/>
-      <c r="J2" s="38"/>
-      <c r="K2" s="38"/>
-      <c r="L2" s="38"/>
-      <c r="M2" s="39"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B3" s="56"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
-      <c r="G3" s="57"/>
-      <c r="H3" s="57"/>
-      <c r="I3" s="57"/>
-      <c r="J3" s="57"/>
-      <c r="K3" s="57"/>
-      <c r="L3" s="57"/>
-      <c r="M3" s="58"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B4" s="40"/>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="41"/>
-      <c r="H4" s="41"/>
-      <c r="I4" s="41"/>
-      <c r="J4" s="41"/>
-      <c r="K4" s="41"/>
-      <c r="L4" s="41"/>
-      <c r="M4" s="44"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B5" s="40"/>
-      <c r="C5" s="41"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
-      <c r="L5" s="41"/>
-      <c r="M5" s="44"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B6" s="40"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="41"/>
-      <c r="K6" s="41"/>
-      <c r="L6" s="41"/>
-      <c r="M6" s="44"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B7" s="40"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
-      <c r="M7" s="44"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B8" s="40"/>
-      <c r="C8" s="41"/>
-      <c r="D8" s="41"/>
-      <c r="E8" s="41"/>
-      <c r="F8" s="41"/>
-      <c r="G8" s="41"/>
-      <c r="H8" s="41"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="41"/>
-      <c r="K8" s="41"/>
-      <c r="L8" s="41"/>
-      <c r="M8" s="44"/>
-    </row>
-    <row r="9" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B9" s="40"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="44"/>
-    </row>
-    <row r="10" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B10" s="40"/>
-      <c r="C10" s="41"/>
-      <c r="D10" s="41"/>
-      <c r="E10" s="41"/>
-      <c r="F10" s="41"/>
-      <c r="G10" s="41"/>
-      <c r="H10" s="41"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="41"/>
-      <c r="K10" s="41"/>
-      <c r="L10" s="41"/>
-      <c r="M10" s="44"/>
-    </row>
-    <row r="11" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B11" s="40"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="44"/>
-    </row>
-    <row r="12" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B12" s="40"/>
-      <c r="C12" s="41"/>
-      <c r="D12" s="41"/>
-      <c r="E12" s="41"/>
-      <c r="F12" s="41"/>
-      <c r="G12" s="41"/>
-      <c r="H12" s="41"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="44"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B13" s="40"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="44"/>
-    </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B14" s="40"/>
-      <c r="C14" s="41"/>
-      <c r="D14" s="41"/>
-      <c r="E14" s="41"/>
-      <c r="F14" s="41"/>
-      <c r="G14" s="41"/>
-      <c r="H14" s="41"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="44"/>
-    </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B15" s="40"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="44"/>
-    </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B16" s="59"/>
-      <c r="C16" s="60"/>
-      <c r="D16" s="60"/>
-      <c r="E16" s="60"/>
-      <c r="F16" s="60"/>
-      <c r="G16" s="60"/>
-      <c r="H16" s="60"/>
-      <c r="I16" s="60"/>
-      <c r="J16" s="60"/>
-      <c r="K16" s="60"/>
-      <c r="L16" s="60"/>
-      <c r="M16" s="61"/>
-    </row>
-    <row r="17" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B17" s="56" t="s">
+      <c r="C17" s="80"/>
+      <c r="D17" s="80"/>
+      <c r="E17" s="80"/>
+      <c r="F17" s="80"/>
+      <c r="G17" s="80"/>
+      <c r="H17" s="80"/>
+      <c r="I17" s="80"/>
+      <c r="J17" s="80"/>
+      <c r="K17" s="80"/>
+      <c r="L17" s="80"/>
+      <c r="M17" s="81"/>
+    </row>
+    <row r="18" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="57"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="57"/>
-      <c r="G17" s="57"/>
-      <c r="H17" s="57"/>
-      <c r="I17" s="57"/>
-      <c r="J17" s="57"/>
-      <c r="K17" s="57"/>
-      <c r="L17" s="57"/>
-      <c r="M17" s="58"/>
-    </row>
-    <row r="18" spans="2:15" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="3" t="s">
+      <c r="C18" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="C18" s="43" t="s">
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40"/>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40"/>
+      <c r="M18" s="41"/>
+    </row>
+    <row r="22" spans="2:15" x14ac:dyDescent="0.4">
+      <c r="B22" s="78" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="43"/>
-      <c r="E18" s="43"/>
-      <c r="F18" s="43"/>
-      <c r="G18" s="43"/>
-      <c r="H18" s="43"/>
-      <c r="I18" s="43"/>
-      <c r="J18" s="43"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="45"/>
-    </row>
-    <row r="22" spans="2:15" x14ac:dyDescent="0.3">
-      <c r="B22" s="55" t="s">
-        <v>53</v>
-      </c>
-      <c r="C22" s="55"/>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="55"/>
-      <c r="J22" s="55"/>
-      <c r="K22" s="55"/>
-      <c r="L22" s="55"/>
-      <c r="M22" s="55"/>
-      <c r="N22" s="55"/>
-      <c r="O22" s="55"/>
-    </row>
-    <row r="41" spans="14:14" x14ac:dyDescent="0.3">
+      <c r="C22" s="78"/>
+      <c r="D22" s="78"/>
+      <c r="E22" s="78"/>
+      <c r="F22" s="78"/>
+      <c r="G22" s="78"/>
+      <c r="H22" s="78"/>
+      <c r="I22" s="78"/>
+      <c r="J22" s="78"/>
+      <c r="K22" s="78"/>
+      <c r="L22" s="78"/>
+      <c r="M22" s="78"/>
+      <c r="N22" s="78"/>
+      <c r="O22" s="78"/>
+    </row>
+    <row r="41" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N41">
         <v>0</v>
       </c>
@@ -5961,512 +9610,394 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C08F4E42-9040-435E-95AB-0D49ED90C131}">
-  <dimension ref="B2:M46"/>
+  <dimension ref="B3:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:N22"/>
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <sheetData>
-    <row r="2" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="L2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M4" t="s">
+    <row r="3" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B3" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M5" t="s">
+    <row r="4" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B4" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="7" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M7" t="s">
+    <row r="5" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B5" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M8" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="9" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M9" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="13" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M13" t="s">
+    <row r="7" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B7" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="14" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M14" t="s">
+    <row r="8" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B8" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="15" spans="12:13" x14ac:dyDescent="0.3">
-      <c r="M15" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M17" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="18" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M18" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="20" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M20" t="s">
+    <row r="10" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B11" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="21" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M21" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="22" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M22" t="s">
+    <row r="12" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="24" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M24" t="s">
+    <row r="13" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B13" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="25" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M25" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="26" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M26" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="27" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B27" t="s">
-        <v>138</v>
-      </c>
-      <c r="M27" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="29" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M29" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="30" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M30" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="31" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M31" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="33" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M33" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="M34" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="35" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B35" t="s">
-        <v>140</v>
-      </c>
-      <c r="M35" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="36" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B36" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="37" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B37" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="38" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B38" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="39" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B39" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="40" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="44" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B44" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="45" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B45" t="s">
-        <v>152</v>
-      </c>
-      <c r="C45" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="46" spans="2:13" x14ac:dyDescent="0.3">
-      <c r="B46" t="s">
-        <v>154</v>
-      </c>
-      <c r="C46" t="s">
-        <v>155</v>
+    <row r="14" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.4">
+      <c r="B15" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0809319-B44D-402C-B62F-92E33EF7EB13}">
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A16" workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="31.875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="25.875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="25.125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.8984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.8984375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="20.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.09765625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B1" s="46" t="s">
+    <row r="1" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B1" s="71" t="s">
+        <v>67</v>
+      </c>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
+      <c r="F1" s="73"/>
+    </row>
+    <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B2" s="74"/>
+      <c r="C2" s="75"/>
+      <c r="D2" s="75"/>
+      <c r="E2" s="75"/>
+      <c r="F2" s="76"/>
+    </row>
+    <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B4" s="47" t="s">
         <v>68</v>
       </c>
-      <c r="C1" s="47"/>
-      <c r="D1" s="47"/>
-      <c r="E1" s="47"/>
-      <c r="F1" s="48"/>
-    </row>
-    <row r="2" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="49"/>
-      <c r="C2" s="50"/>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="51"/>
-    </row>
-    <row r="3" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B4" s="37" t="s">
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B5" s="2" t="s">
+      <c r="C5" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="D5" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="E5" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="5" t="s">
-        <v>73</v>
-      </c>
       <c r="F5" s="6" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B6" s="2" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B7" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B8" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F6" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>114</v>
-      </c>
-      <c r="F7" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B8" s="2" t="s">
+      <c r="C8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>79</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="D9" s="5"/>
       <c r="E9" s="5"/>
       <c r="F9" s="6" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="D10" s="5"/>
       <c r="E10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B11" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="F10" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B11" s="2" t="s">
-        <v>86</v>
-      </c>
       <c r="C11" s="5" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D11" s="5"/>
       <c r="E11" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="C12" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="C12" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="D12" s="5"/>
       <c r="E12" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B13" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="5" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="14" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B14" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D14" s="5"/>
       <c r="E14" s="5"/>
       <c r="F14" s="6" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="15" spans="2:6" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B15" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C15" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="D15" s="5"/>
       <c r="E15" s="5" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="16" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B16" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="D16" s="5"/>
       <c r="E16" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D17" s="5"/>
       <c r="E17" s="5"/>
       <c r="F17" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B18" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E18" s="5" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B18" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="C18" s="5" t="s">
+      <c r="F18" s="6" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B19" s="3" t="s">
         <v>97</v>
       </c>
-      <c r="D18" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E18" s="5" t="s">
-        <v>109</v>
-      </c>
-      <c r="F18" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="3" t="s">
+      <c r="C19" s="7" t="s">
         <v>98</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="D19" s="7"/>
       <c r="E19" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B22" s="47" t="s">
         <v>110</v>
       </c>
-      <c r="F19" s="8" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B22" s="37" t="s">
+      <c r="C22" s="48"/>
+      <c r="D22" s="48"/>
+      <c r="E22" s="48"/>
+      <c r="F22" s="49"/>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B23" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.4">
+      <c r="B24" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D24" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B23" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C23" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="D23" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="F23" s="6"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B24" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>131</v>
-      </c>
-      <c r="D24" s="5" t="s">
+      <c r="E24" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="B25" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="E25" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="E24" s="5" t="s">
-        <v>132</v>
-      </c>
-      <c r="F24" s="6"/>
-    </row>
-    <row r="25" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>113</v>
       </c>
       <c r="F25" s="8"/>
     </row>

--- a/리볼트데이 문서/기초기획서(181219).xlsx
+++ b/리볼트데이 문서/기초기획서(181219).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\revoltday\RevoltDay\리볼트데이 문서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3645A61C-4F29-4C9E-B2D3-949B1FB5758F}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{822B5C53-97D7-4DEC-ADC9-3D543F2AFF57}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12120" firstSheet="2" activeTab="4" xr2:uid="{4FDB079C-D219-43E0-BABC-623711B061EB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="256">
   <si>
     <t>리볼트 데이 통합 기획서</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -977,14 +977,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>개요</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">회색 도시와 같이 </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>진행 방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1058,6 +1050,18 @@
   </si>
   <si>
     <t>만약 속성이 같다면 어드밴테이지가 없고 서로 데미지 교환만 이루어짐.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회색도시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>모티브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">추리 이슈를 선택 시, 추리 씬이 팝업 되면서 </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1558,6 +1562,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1612,24 +1670,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1639,58 +1679,19 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="4" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1705,14 +1706,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1737,6 +1741,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1779,18 +1795,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6870,321 +6874,309 @@
   <sheetData>
     <row r="1" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="19"/>
+      <c r="C2" s="36"/>
+      <c r="D2" s="36"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="37"/>
     </row>
     <row r="3" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B3" s="20"/>
-      <c r="C3" s="21"/>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="21"/>
-      <c r="G3" s="22"/>
+      <c r="B3" s="38"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="23"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="24"/>
-      <c r="E4" s="24"/>
-      <c r="F4" s="24"/>
-      <c r="G4" s="25"/>
+      <c r="B4" s="41"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="I4" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="6" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="7" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="47" t="s">
         <v>137</v>
       </c>
-      <c r="C7" s="36"/>
-      <c r="D7" s="36"/>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="37"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C8" s="38" t="s">
+      <c r="C8" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="39"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="18"/>
     </row>
     <row r="9" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="38" t="s">
+      <c r="C9" s="12" t="s">
         <v>142</v>
       </c>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="39"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="18"/>
     </row>
     <row r="10" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B10" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="14" t="s">
         <v>143</v>
       </c>
-      <c r="D10" s="40"/>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="41"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="19"/>
     </row>
     <row r="11" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B12" s="26" t="s">
+      <c r="B12" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="C12" s="27"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="27"/>
-      <c r="G12" s="27"/>
-      <c r="H12" s="27"/>
-      <c r="I12" s="27"/>
-      <c r="J12" s="27"/>
-      <c r="K12" s="27"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="27"/>
-      <c r="N12" s="27"/>
-      <c r="O12" s="28"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="45"/>
+      <c r="H12" s="45"/>
+      <c r="I12" s="45"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="45"/>
+      <c r="L12" s="45"/>
+      <c r="M12" s="45"/>
+      <c r="N12" s="45"/>
+      <c r="O12" s="46"/>
     </row>
     <row r="13" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="30"/>
-      <c r="J13" s="30"/>
-      <c r="K13" s="30"/>
-      <c r="L13" s="30"/>
-      <c r="M13" s="30"/>
-      <c r="N13" s="30"/>
-      <c r="O13" s="31"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24"/>
+      <c r="M13" s="24"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="25"/>
     </row>
     <row r="14" spans="2:15" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="23" t="s">
         <v>47</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="30"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="30"/>
-      <c r="L14" s="30"/>
-      <c r="M14" s="30"/>
-      <c r="N14" s="30"/>
-      <c r="O14" s="31"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24"/>
+      <c r="M14" s="24"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="25"/>
     </row>
     <row r="15" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="26" t="s">
         <v>46</v>
       </c>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-      <c r="L15" s="33"/>
-      <c r="M15" s="33"/>
-      <c r="N15" s="33"/>
-      <c r="O15" s="34"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27"/>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="27"/>
+      <c r="M15" s="27"/>
+      <c r="N15" s="27"/>
+      <c r="O15" s="28"/>
     </row>
     <row r="17" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="18" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B18" s="11" t="s">
+      <c r="B18" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C18" s="12"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="12"/>
-      <c r="G18" s="13"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="31"/>
     </row>
     <row r="19" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B19" s="14"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
-      <c r="G19" s="16"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="34"/>
     </row>
     <row r="20" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="21" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B21" s="42" t="s">
+      <c r="B21" s="20" t="s">
         <v>2</v>
       </c>
-      <c r="C21" s="43"/>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="43"/>
-      <c r="H21" s="43"/>
-      <c r="I21" s="43"/>
-      <c r="J21" s="43"/>
-      <c r="K21" s="44"/>
+      <c r="C21" s="21"/>
+      <c r="D21" s="21"/>
+      <c r="E21" s="21"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="21"/>
+      <c r="H21" s="21"/>
+      <c r="I21" s="21"/>
+      <c r="J21" s="21"/>
+      <c r="K21" s="22"/>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="30"/>
-      <c r="K23" s="31"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="25"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="30"/>
-      <c r="J24" s="30"/>
-      <c r="K24" s="31"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="25"/>
     </row>
     <row r="25" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="33"/>
-      <c r="K25" s="34"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="27"/>
+      <c r="H25" s="27"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="27"/>
+      <c r="K25" s="28"/>
     </row>
     <row r="26" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="27" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B27" s="47" t="s">
+      <c r="B27" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="C27" s="48"/>
-      <c r="D27" s="48"/>
-      <c r="E27" s="48"/>
-      <c r="F27" s="48"/>
-      <c r="G27" s="48"/>
-      <c r="H27" s="48"/>
-      <c r="I27" s="48"/>
-      <c r="J27" s="48"/>
-      <c r="K27" s="49"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
+      <c r="E27" s="16"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="16"/>
+      <c r="K27" s="17"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B28" s="45" t="s">
+      <c r="B28" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="C28" s="38"/>
-      <c r="D28" s="38"/>
-      <c r="E28" s="38" t="s">
+      <c r="C28" s="12"/>
+      <c r="D28" s="12"/>
+      <c r="E28" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="F28" s="38"/>
-      <c r="G28" s="38"/>
-      <c r="H28" s="38"/>
-      <c r="I28" s="38"/>
-      <c r="J28" s="38"/>
-      <c r="K28" s="39"/>
+      <c r="F28" s="12"/>
+      <c r="G28" s="12"/>
+      <c r="H28" s="12"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="12"/>
+      <c r="K28" s="18"/>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.4">
-      <c r="B29" s="45" t="s">
+      <c r="B29" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="C29" s="38"/>
-      <c r="D29" s="38"/>
-      <c r="E29" s="38" t="s">
+      <c r="C29" s="12"/>
+      <c r="D29" s="12"/>
+      <c r="E29" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="F29" s="38"/>
-      <c r="G29" s="38"/>
-      <c r="H29" s="38"/>
-      <c r="I29" s="38"/>
-      <c r="J29" s="38"/>
-      <c r="K29" s="39"/>
+      <c r="F29" s="12"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="12"/>
+      <c r="I29" s="12"/>
+      <c r="J29" s="12"/>
+      <c r="K29" s="18"/>
     </row>
     <row r="30" spans="2:11" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B30" s="46" t="s">
+      <c r="B30" s="13" t="s">
         <v>62</v>
       </c>
-      <c r="C30" s="40"/>
-      <c r="D30" s="40"/>
-      <c r="E30" s="40" t="s">
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14" t="s">
         <v>174</v>
       </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="40"/>
-      <c r="H30" s="40"/>
-      <c r="I30" s="40"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="41"/>
+      <c r="F30" s="14"/>
+      <c r="G30" s="14"/>
+      <c r="H30" s="14"/>
+      <c r="I30" s="14"/>
+      <c r="J30" s="14"/>
+      <c r="K30" s="19"/>
     </row>
   </sheetData>
   <mergeCells count="22">
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B27:K27"/>
-    <mergeCell ref="E28:K28"/>
-    <mergeCell ref="E29:K29"/>
-    <mergeCell ref="E30:K30"/>
-    <mergeCell ref="B21:K21"/>
-    <mergeCell ref="B22:K22"/>
-    <mergeCell ref="B23:K23"/>
-    <mergeCell ref="B24:K24"/>
-    <mergeCell ref="B25:K25"/>
     <mergeCell ref="B18:G19"/>
     <mergeCell ref="B2:G4"/>
     <mergeCell ref="B12:O12"/>
@@ -7195,6 +7187,18 @@
     <mergeCell ref="C8:G8"/>
     <mergeCell ref="C9:G9"/>
     <mergeCell ref="C10:G10"/>
+    <mergeCell ref="B21:K21"/>
+    <mergeCell ref="B22:K22"/>
+    <mergeCell ref="B23:K23"/>
+    <mergeCell ref="B24:K24"/>
+    <mergeCell ref="B25:K25"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B27:K27"/>
+    <mergeCell ref="E28:K28"/>
+    <mergeCell ref="E29:K29"/>
+    <mergeCell ref="E30:K30"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7285,24 +7289,24 @@
       <c r="W6" s="50"/>
     </row>
     <row r="7" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B7" s="47" t="s">
+      <c r="B7" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="16"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
     </row>
     <row r="8" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="31"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="25"/>
       <c r="Q8" s="50" t="s">
         <v>160</v>
       </c>
@@ -7310,44 +7314,44 @@
       <c r="S8" s="50"/>
     </row>
     <row r="9" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="51" t="s">
         <v>147</v>
       </c>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="61"/>
-      <c r="F9" s="61"/>
-      <c r="G9" s="62"/>
+      <c r="C9" s="52"/>
+      <c r="D9" s="52"/>
+      <c r="E9" s="52"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B10" s="60" t="s">
+      <c r="B10" s="51" t="s">
         <v>148</v>
       </c>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="61"/>
-      <c r="F10" s="61"/>
-      <c r="G10" s="62"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="52"/>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="53"/>
     </row>
     <row r="11" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="23" t="s">
         <v>53</v>
       </c>
-      <c r="C11" s="30"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="31"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="25"/>
     </row>
     <row r="12" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B12" s="29" t="s">
+      <c r="B12" s="23" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="31"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="25"/>
       <c r="M12" s="50" t="s">
         <v>158</v>
       </c>
@@ -7355,51 +7359,51 @@
       <c r="O12" s="50"/>
     </row>
     <row r="13" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B13" s="29" t="s">
+      <c r="B13" s="23" t="s">
         <v>55</v>
       </c>
-      <c r="C13" s="30"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="31"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="25"/>
     </row>
     <row r="14" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B14" s="29" t="s">
+      <c r="B14" s="23" t="s">
         <v>56</v>
       </c>
-      <c r="C14" s="30"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="31"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="25"/>
     </row>
     <row r="15" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B15" s="29" t="s">
+      <c r="B15" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="C15" s="30"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="31"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="25"/>
     </row>
     <row r="16" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="B16" s="29" t="s">
+      <c r="B16" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="31"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="18" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="19" spans="2:23" x14ac:dyDescent="0.4">
       <c r="B19" s="54" t="s">
         <v>206</v>
       </c>
-      <c r="C19" s="56"/>
+      <c r="C19" s="55"/>
     </row>
     <row r="20" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B20" s="3" t="s">
@@ -7414,33 +7418,33 @@
       <c r="H24" s="54" t="s">
         <v>149</v>
       </c>
-      <c r="I24" s="55"/>
-      <c r="J24" s="55"/>
-      <c r="K24" s="56"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="55"/>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="H25" s="29" t="s">
+      <c r="H25" s="23" t="s">
         <v>150</v>
       </c>
-      <c r="I25" s="30"/>
-      <c r="J25" s="30"/>
-      <c r="K25" s="31"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="25"/>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.4">
-      <c r="H26" s="29" t="s">
+      <c r="H26" s="23" t="s">
         <v>151</v>
       </c>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="31"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="25"/>
     </row>
     <row r="27" spans="2:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="H27" s="32" t="s">
+      <c r="H27" s="26" t="s">
         <v>152</v>
       </c>
-      <c r="I27" s="33"/>
-      <c r="J27" s="33"/>
-      <c r="K27" s="34"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="28"/>
       <c r="T27" s="50" t="s">
         <v>181</v>
       </c>
@@ -7475,14 +7479,14 @@
       <c r="I44" s="54" t="s">
         <v>205</v>
       </c>
-      <c r="J44" s="55"/>
-      <c r="K44" s="55"/>
-      <c r="L44" s="55"/>
-      <c r="M44" s="55"/>
-      <c r="N44" s="55"/>
-      <c r="O44" s="55"/>
-      <c r="P44" s="55"/>
-      <c r="Q44" s="56"/>
+      <c r="J44" s="59"/>
+      <c r="K44" s="59"/>
+      <c r="L44" s="59"/>
+      <c r="M44" s="59"/>
+      <c r="N44" s="59"/>
+      <c r="O44" s="59"/>
+      <c r="P44" s="59"/>
+      <c r="Q44" s="55"/>
       <c r="T44" s="50" t="s">
         <v>155</v>
       </c>
@@ -7491,65 +7495,56 @@
       <c r="W44" s="50"/>
     </row>
     <row r="45" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I45" s="57" t="s">
+      <c r="I45" s="56" t="s">
         <v>117</v>
       </c>
-      <c r="J45" s="58"/>
-      <c r="K45" s="58"/>
-      <c r="L45" s="58"/>
-      <c r="M45" s="58"/>
-      <c r="N45" s="58"/>
-      <c r="O45" s="58"/>
-      <c r="P45" s="58"/>
-      <c r="Q45" s="59"/>
+      <c r="J45" s="57"/>
+      <c r="K45" s="57"/>
+      <c r="L45" s="57"/>
+      <c r="M45" s="57"/>
+      <c r="N45" s="57"/>
+      <c r="O45" s="57"/>
+      <c r="P45" s="57"/>
+      <c r="Q45" s="58"/>
       <c r="T45" s="50"/>
       <c r="U45" s="50"/>
       <c r="V45" s="50"/>
       <c r="W45" s="50"/>
     </row>
     <row r="46" spans="9:23" x14ac:dyDescent="0.4">
-      <c r="I46" s="57" t="s">
+      <c r="I46" s="56" t="s">
         <v>134</v>
       </c>
-      <c r="J46" s="58"/>
-      <c r="K46" s="58"/>
-      <c r="L46" s="58"/>
-      <c r="M46" s="58"/>
-      <c r="N46" s="58"/>
-      <c r="O46" s="58"/>
-      <c r="P46" s="58"/>
-      <c r="Q46" s="59"/>
+      <c r="J46" s="57"/>
+      <c r="K46" s="57"/>
+      <c r="L46" s="57"/>
+      <c r="M46" s="57"/>
+      <c r="N46" s="57"/>
+      <c r="O46" s="57"/>
+      <c r="P46" s="57"/>
+      <c r="Q46" s="58"/>
     </row>
     <row r="47" spans="9:23" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="I47" s="51" t="s">
+      <c r="I47" s="60" t="s">
         <v>135</v>
       </c>
-      <c r="J47" s="52"/>
-      <c r="K47" s="52"/>
-      <c r="L47" s="52"/>
-      <c r="M47" s="52"/>
-      <c r="N47" s="52"/>
-      <c r="O47" s="52"/>
-      <c r="P47" s="52"/>
-      <c r="Q47" s="53"/>
+      <c r="J47" s="61"/>
+      <c r="K47" s="61"/>
+      <c r="L47" s="61"/>
+      <c r="M47" s="61"/>
+      <c r="N47" s="61"/>
+      <c r="O47" s="61"/>
+      <c r="P47" s="61"/>
+      <c r="Q47" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="29">
-    <mergeCell ref="B14:G14"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B2:G4"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B12:G12"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="I45:Q45"/>
-    <mergeCell ref="I44:Q44"/>
-    <mergeCell ref="I46:Q46"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="U5:W5"/>
+    <mergeCell ref="U6:W6"/>
+    <mergeCell ref="T44:W45"/>
+    <mergeCell ref="T30:W31"/>
+    <mergeCell ref="T27:W27"/>
+    <mergeCell ref="T28:W28"/>
     <mergeCell ref="I47:Q47"/>
     <mergeCell ref="J2:Q4"/>
     <mergeCell ref="H24:K24"/>
@@ -7558,12 +7553,21 @@
     <mergeCell ref="H27:K27"/>
     <mergeCell ref="M12:O12"/>
     <mergeCell ref="Q8:S8"/>
-    <mergeCell ref="U5:W5"/>
-    <mergeCell ref="U6:W6"/>
-    <mergeCell ref="T44:W45"/>
-    <mergeCell ref="T30:W31"/>
-    <mergeCell ref="T27:W27"/>
-    <mergeCell ref="T28:W28"/>
+    <mergeCell ref="I45:Q45"/>
+    <mergeCell ref="I44:Q44"/>
+    <mergeCell ref="I46:Q46"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B2:G4"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="B14:G14"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7575,7 +7579,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D94A4C58-65D2-4065-8D6A-0F7D1B50EE2F}">
   <dimension ref="C2:S53"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B43" workbookViewId="0">
       <selection activeCell="S44" sqref="S44"/>
     </sheetView>
   </sheetViews>
@@ -7743,8 +7747,8 @@
       <c r="R30" s="65"/>
     </row>
     <row r="31" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C31" s="45"/>
-      <c r="D31" s="38"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="12"/>
       <c r="E31" s="69" t="s">
         <v>193</v>
       </c>
@@ -7752,21 +7756,21 @@
       <c r="G31" s="69"/>
       <c r="H31" s="69"/>
       <c r="I31" s="69"/>
-      <c r="J31" s="38"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38" t="s">
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="M31" s="38"/>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
-      <c r="Q31" s="38"/>
-      <c r="R31" s="39"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
+      <c r="P31" s="12"/>
+      <c r="Q31" s="12"/>
+      <c r="R31" s="18"/>
     </row>
     <row r="32" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C32" s="45"/>
-      <c r="D32" s="38"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="12"/>
       <c r="E32" s="70" t="s">
         <v>190</v>
       </c>
@@ -7774,21 +7778,21 @@
       <c r="G32" s="70"/>
       <c r="H32" s="70"/>
       <c r="I32" s="70"/>
-      <c r="J32" s="38"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="30" t="s">
+      <c r="J32" s="12"/>
+      <c r="K32" s="12"/>
+      <c r="L32" s="24" t="s">
         <v>194</v>
       </c>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
-      <c r="O32" s="30"/>
-      <c r="P32" s="30"/>
-      <c r="Q32" s="30"/>
-      <c r="R32" s="31"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+      <c r="O32" s="24"/>
+      <c r="P32" s="24"/>
+      <c r="Q32" s="24"/>
+      <c r="R32" s="25"/>
     </row>
     <row r="33" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C33" s="45"/>
-      <c r="D33" s="38"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="12"/>
       <c r="E33" s="70" t="s">
         <v>191</v>
       </c>
@@ -7796,21 +7800,21 @@
       <c r="G33" s="70"/>
       <c r="H33" s="70"/>
       <c r="I33" s="70"/>
-      <c r="J33" s="38"/>
-      <c r="K33" s="38"/>
-      <c r="L33" s="30" t="s">
+      <c r="J33" s="12"/>
+      <c r="K33" s="12"/>
+      <c r="L33" s="24" t="s">
         <v>195</v>
       </c>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
-      <c r="O33" s="30"/>
-      <c r="P33" s="30"/>
-      <c r="Q33" s="30"/>
-      <c r="R33" s="31"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+      <c r="O33" s="24"/>
+      <c r="P33" s="24"/>
+      <c r="Q33" s="24"/>
+      <c r="R33" s="25"/>
     </row>
     <row r="34" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C34" s="45"/>
-      <c r="D34" s="38"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="12"/>
       <c r="E34" s="70" t="s">
         <v>192</v>
       </c>
@@ -7818,121 +7822,121 @@
       <c r="G34" s="70"/>
       <c r="H34" s="70"/>
       <c r="I34" s="70"/>
-      <c r="J34" s="38"/>
-      <c r="K34" s="38"/>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
-      <c r="O34" s="30"/>
-      <c r="P34" s="30"/>
-      <c r="Q34" s="30"/>
-      <c r="R34" s="31"/>
+      <c r="J34" s="12"/>
+      <c r="K34" s="12"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+      <c r="O34" s="24"/>
+      <c r="P34" s="24"/>
+      <c r="Q34" s="24"/>
+      <c r="R34" s="25"/>
     </row>
     <row r="35" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C35" s="45"/>
-      <c r="D35" s="38"/>
-      <c r="E35" s="38"/>
-      <c r="F35" s="38"/>
-      <c r="G35" s="38"/>
-      <c r="H35" s="38"/>
-      <c r="I35" s="38"/>
-      <c r="J35" s="38"/>
-      <c r="K35" s="38"/>
-      <c r="L35" s="38"/>
-      <c r="M35" s="38"/>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
-      <c r="Q35" s="38"/>
-      <c r="R35" s="39"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="12"/>
+      <c r="E35" s="12"/>
+      <c r="F35" s="12"/>
+      <c r="G35" s="12"/>
+      <c r="H35" s="12"/>
+      <c r="I35" s="12"/>
+      <c r="J35" s="12"/>
+      <c r="K35" s="12"/>
+      <c r="L35" s="12"/>
+      <c r="M35" s="12"/>
+      <c r="N35" s="12"/>
+      <c r="O35" s="12"/>
+      <c r="P35" s="12"/>
+      <c r="Q35" s="12"/>
+      <c r="R35" s="18"/>
     </row>
     <row r="36" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C36" s="45"/>
-      <c r="D36" s="38"/>
-      <c r="E36" s="38" t="s">
+      <c r="C36" s="11"/>
+      <c r="D36" s="12"/>
+      <c r="E36" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="F36" s="38"/>
-      <c r="G36" s="38"/>
-      <c r="H36" s="38"/>
-      <c r="I36" s="38"/>
-      <c r="J36" s="38"/>
-      <c r="K36" s="38"/>
-      <c r="L36" s="38" t="s">
+      <c r="F36" s="12"/>
+      <c r="G36" s="12"/>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+      <c r="K36" s="12"/>
+      <c r="L36" s="12" t="s">
         <v>23</v>
       </c>
-      <c r="M36" s="38"/>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
-      <c r="Q36" s="38"/>
-      <c r="R36" s="39"/>
+      <c r="M36" s="12"/>
+      <c r="N36" s="12"/>
+      <c r="O36" s="12"/>
+      <c r="P36" s="12"/>
+      <c r="Q36" s="12"/>
+      <c r="R36" s="18"/>
     </row>
     <row r="37" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C37" s="45"/>
-      <c r="D37" s="38"/>
-      <c r="E37" s="30" t="s">
+      <c r="C37" s="11"/>
+      <c r="D37" s="12"/>
+      <c r="E37" s="24" t="s">
         <v>200</v>
       </c>
-      <c r="F37" s="30"/>
-      <c r="G37" s="30"/>
-      <c r="H37" s="30"/>
-      <c r="I37" s="30"/>
-      <c r="J37" s="38"/>
-      <c r="K37" s="38"/>
-      <c r="L37" s="30" t="s">
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="12"/>
+      <c r="K37" s="12"/>
+      <c r="L37" s="24" t="s">
         <v>196</v>
       </c>
-      <c r="M37" s="30"/>
-      <c r="N37" s="30"/>
-      <c r="O37" s="30"/>
-      <c r="P37" s="30"/>
-      <c r="Q37" s="30"/>
-      <c r="R37" s="31"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+      <c r="O37" s="24"/>
+      <c r="P37" s="24"/>
+      <c r="Q37" s="24"/>
+      <c r="R37" s="25"/>
     </row>
     <row r="38" spans="3:18" x14ac:dyDescent="0.4">
-      <c r="C38" s="45"/>
-      <c r="D38" s="38"/>
-      <c r="E38" s="30" t="s">
+      <c r="C38" s="11"/>
+      <c r="D38" s="12"/>
+      <c r="E38" s="24" t="s">
         <v>201</v>
       </c>
-      <c r="F38" s="30"/>
-      <c r="G38" s="30"/>
-      <c r="H38" s="30"/>
-      <c r="I38" s="30"/>
-      <c r="J38" s="38"/>
-      <c r="K38" s="38"/>
-      <c r="L38" s="30" t="s">
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="12"/>
+      <c r="K38" s="12"/>
+      <c r="L38" s="24" t="s">
         <v>197</v>
       </c>
-      <c r="M38" s="30"/>
-      <c r="N38" s="30"/>
-      <c r="O38" s="30"/>
-      <c r="P38" s="30"/>
-      <c r="Q38" s="30"/>
-      <c r="R38" s="31"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+      <c r="O38" s="24"/>
+      <c r="P38" s="24"/>
+      <c r="Q38" s="24"/>
+      <c r="R38" s="25"/>
     </row>
     <row r="39" spans="3:18" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C39" s="46"/>
-      <c r="D39" s="40"/>
-      <c r="E39" s="33" t="s">
+      <c r="C39" s="13"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="27" t="s">
         <v>202</v>
       </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="33"/>
-      <c r="H39" s="33"/>
-      <c r="I39" s="33"/>
-      <c r="J39" s="40"/>
-      <c r="K39" s="40"/>
-      <c r="L39" s="33" t="s">
+      <c r="F39" s="27"/>
+      <c r="G39" s="27"/>
+      <c r="H39" s="27"/>
+      <c r="I39" s="27"/>
+      <c r="J39" s="14"/>
+      <c r="K39" s="14"/>
+      <c r="L39" s="27" t="s">
         <v>198</v>
       </c>
-      <c r="M39" s="33"/>
-      <c r="N39" s="33"/>
-      <c r="O39" s="33"/>
-      <c r="P39" s="33"/>
-      <c r="Q39" s="33"/>
-      <c r="R39" s="34"/>
+      <c r="M39" s="27"/>
+      <c r="N39" s="27"/>
+      <c r="O39" s="27"/>
+      <c r="P39" s="27"/>
+      <c r="Q39" s="27"/>
+      <c r="R39" s="28"/>
     </row>
     <row r="41" spans="3:18" x14ac:dyDescent="0.4">
       <c r="C41" t="s">
@@ -8011,17 +8015,6 @@
     </row>
   </sheetData>
   <mergeCells count="27">
-    <mergeCell ref="C35:R35"/>
-    <mergeCell ref="E36:I36"/>
-    <mergeCell ref="E37:I37"/>
-    <mergeCell ref="E38:I38"/>
-    <mergeCell ref="E39:I39"/>
-    <mergeCell ref="C36:D39"/>
-    <mergeCell ref="L36:R36"/>
-    <mergeCell ref="L37:R37"/>
-    <mergeCell ref="L38:R38"/>
-    <mergeCell ref="L39:R39"/>
-    <mergeCell ref="J36:K39"/>
     <mergeCell ref="C2:L4"/>
     <mergeCell ref="L31:R31"/>
     <mergeCell ref="J31:K34"/>
@@ -8038,6 +8031,17 @@
     <mergeCell ref="L34:R34"/>
     <mergeCell ref="L33:R33"/>
     <mergeCell ref="L32:R32"/>
+    <mergeCell ref="C35:R35"/>
+    <mergeCell ref="E36:I36"/>
+    <mergeCell ref="E37:I37"/>
+    <mergeCell ref="E38:I38"/>
+    <mergeCell ref="E39:I39"/>
+    <mergeCell ref="C36:D39"/>
+    <mergeCell ref="L36:R36"/>
+    <mergeCell ref="L37:R37"/>
+    <mergeCell ref="L38:R38"/>
+    <mergeCell ref="L39:R39"/>
+    <mergeCell ref="J36:K39"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8049,7 +8053,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B678A46-27AC-4250-B4B7-664EC4509004}">
   <dimension ref="B1:O56"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="A43" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
@@ -8065,163 +8069,163 @@
       <c r="C2" s="54" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="55"/>
-      <c r="E2" s="55"/>
-      <c r="F2" s="55"/>
-      <c r="G2" s="55"/>
-      <c r="H2" s="55"/>
-      <c r="I2" s="55"/>
-      <c r="J2" s="55"/>
-      <c r="K2" s="55"/>
-      <c r="L2" s="56"/>
+      <c r="D2" s="59"/>
+      <c r="E2" s="59"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
+      <c r="H2" s="59"/>
+      <c r="I2" s="59"/>
+      <c r="J2" s="59"/>
+      <c r="K2" s="59"/>
+      <c r="L2" s="55"/>
     </row>
     <row r="3" spans="2:14" x14ac:dyDescent="0.4">
       <c r="B3" s="10"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="38"/>
-      <c r="H3" s="38"/>
-      <c r="I3" s="38"/>
-      <c r="J3" s="38"/>
-      <c r="K3" s="38"/>
-      <c r="L3" s="39"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="18"/>
     </row>
     <row r="4" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C4" s="45"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="I4" s="85" t="s">
+      <c r="I4" s="71" t="s">
         <v>227</v>
       </c>
-      <c r="J4" s="85"/>
-      <c r="K4" s="85"/>
-      <c r="L4" s="86"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+      <c r="L4" s="72"/>
       <c r="N4" t="s">
         <v>233</v>
       </c>
     </row>
     <row r="5" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C5" s="45"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="85"/>
-      <c r="K5" s="85"/>
-      <c r="L5" s="86"/>
+      <c r="C5" s="11"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+      <c r="L5" s="72"/>
       <c r="N5" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="6" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C6" s="45"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="85"/>
-      <c r="J6" s="85"/>
-      <c r="K6" s="85"/>
-      <c r="L6" s="86"/>
+      <c r="C6" s="11"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="71"/>
+      <c r="J6" s="71"/>
+      <c r="K6" s="71"/>
+      <c r="L6" s="72"/>
       <c r="N6" t="s">
         <v>231</v>
       </c>
     </row>
     <row r="7" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C7" s="45"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="85"/>
-      <c r="J7" s="85"/>
-      <c r="K7" s="85"/>
-      <c r="L7" s="86"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="71"/>
+      <c r="J7" s="71"/>
+      <c r="K7" s="71"/>
+      <c r="L7" s="72"/>
       <c r="N7" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="8" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C8" s="45"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="85"/>
-      <c r="J8" s="85"/>
-      <c r="K8" s="85"/>
-      <c r="L8" s="86"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="71"/>
+      <c r="J8" s="71"/>
+      <c r="K8" s="71"/>
+      <c r="L8" s="72"/>
       <c r="N8" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="9" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C9" s="45"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38" t="s">
+      <c r="C9" s="11"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="I9" s="85" t="s">
+      <c r="I9" s="71" t="s">
         <v>229</v>
       </c>
-      <c r="J9" s="85"/>
-      <c r="K9" s="85"/>
-      <c r="L9" s="86"/>
+      <c r="J9" s="71"/>
+      <c r="K9" s="71"/>
+      <c r="L9" s="72"/>
     </row>
     <row r="10" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C10" s="45"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="85"/>
-      <c r="J10" s="85"/>
-      <c r="K10" s="85"/>
-      <c r="L10" s="86"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="71"/>
+      <c r="J10" s="71"/>
+      <c r="K10" s="71"/>
+      <c r="L10" s="72"/>
     </row>
     <row r="11" spans="2:14" x14ac:dyDescent="0.4">
-      <c r="C11" s="45"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="85"/>
-      <c r="J11" s="85"/>
-      <c r="K11" s="85"/>
-      <c r="L11" s="86"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="71"/>
+      <c r="J11" s="71"/>
+      <c r="K11" s="71"/>
+      <c r="L11" s="72"/>
     </row>
     <row r="12" spans="2:14" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C12" s="46"/>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="87"/>
-      <c r="J12" s="87"/>
-      <c r="K12" s="87"/>
-      <c r="L12" s="88"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="73"/>
+      <c r="J12" s="73"/>
+      <c r="K12" s="73"/>
+      <c r="L12" s="74"/>
     </row>
     <row r="14" spans="2:14" x14ac:dyDescent="0.4">
       <c r="C14" s="50" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="D14" s="50"/>
       <c r="E14" s="50"/>
@@ -8390,163 +8394,163 @@
       <c r="L27" s="50"/>
     </row>
     <row r="29" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="24" t="s">
+        <v>242</v>
+      </c>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C30" s="24" t="s">
+        <v>243</v>
+      </c>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="24"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C31" s="24" t="s">
         <v>244</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-    </row>
-    <row r="30" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C30" s="30" t="s">
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="24"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
+      <c r="C32" s="24" t="s">
         <v>245</v>
       </c>
-      <c r="D30" s="30"/>
-      <c r="E30" s="30"/>
-      <c r="F30" s="30"/>
-      <c r="G30" s="30"/>
-      <c r="H30" s="30"/>
-      <c r="I30" s="30"/>
-      <c r="J30" s="30"/>
-      <c r="K30" s="30"/>
-      <c r="L30" s="30"/>
-    </row>
-    <row r="31" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C31" s="30" t="s">
-        <v>246</v>
-      </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-    </row>
-    <row r="32" spans="3:12" x14ac:dyDescent="0.4">
-      <c r="C32" s="30" t="s">
-        <v>247</v>
-      </c>
-      <c r="D32" s="30"/>
-      <c r="E32" s="30"/>
-      <c r="F32" s="30"/>
-      <c r="G32" s="30"/>
-      <c r="H32" s="30"/>
-      <c r="I32" s="30"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="30"/>
-      <c r="L32" s="30"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="24"/>
     </row>
     <row r="35" spans="5:12" x14ac:dyDescent="0.4">
       <c r="K35" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="L35" s="5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="36" spans="5:12" x14ac:dyDescent="0.4">
       <c r="K36" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="L36" s="5" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="37" spans="5:12" x14ac:dyDescent="0.4">
       <c r="E37" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="K37" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="L37" s="5" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39" spans="5:12" x14ac:dyDescent="0.4">
       <c r="L39" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="46" spans="5:12" x14ac:dyDescent="0.4">
       <c r="H46" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="49" spans="4:15" x14ac:dyDescent="0.4">
       <c r="N49" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="O49" s="5" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="50" spans="4:15" x14ac:dyDescent="0.4">
       <c r="N50" s="5" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="O50" s="5" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="51" spans="4:15" x14ac:dyDescent="0.4">
       <c r="N51" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="O51" s="5" t="s">
         <v>248</v>
-      </c>
-      <c r="O51" s="5" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="54" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D54" s="5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="55" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D55" s="5" t="s">
+        <v>250</v>
+      </c>
+      <c r="E55" s="5" t="s">
+        <v>240</v>
+      </c>
+      <c r="I55" t="s">
         <v>252</v>
-      </c>
-      <c r="E55" s="5" t="s">
-        <v>242</v>
-      </c>
-      <c r="I55" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="56" spans="4:15" x14ac:dyDescent="0.4">
       <c r="D56" s="5" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C2:L3"/>
+    <mergeCell ref="C4:G12"/>
+    <mergeCell ref="C32:L32"/>
+    <mergeCell ref="I4:L8"/>
+    <mergeCell ref="H4:H8"/>
+    <mergeCell ref="I9:L12"/>
+    <mergeCell ref="H9:H12"/>
     <mergeCell ref="C14:L15"/>
     <mergeCell ref="C16:L27"/>
     <mergeCell ref="C29:L29"/>
     <mergeCell ref="C30:L30"/>
     <mergeCell ref="C31:L31"/>
-    <mergeCell ref="C32:L32"/>
-    <mergeCell ref="I4:L8"/>
-    <mergeCell ref="H4:H8"/>
-    <mergeCell ref="I9:L12"/>
-    <mergeCell ref="H9:H12"/>
-    <mergeCell ref="C2:L3"/>
-    <mergeCell ref="C4:G12"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8559,7 +8563,7 @@
   <dimension ref="B2:O17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -8603,11 +8607,14 @@
       <c r="F4" s="50"/>
       <c r="G4" s="50"/>
       <c r="H4" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" t="s">
-        <v>235</v>
-      </c>
+        <v>254</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>253</v>
+      </c>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+      <c r="L4" s="50"/>
       <c r="O4" t="s">
         <v>163</v>
       </c>
@@ -8619,6 +8626,13 @@
       <c r="E5" s="50"/>
       <c r="F5" s="50"/>
       <c r="G5" s="50"/>
+      <c r="H5" s="50" t="s">
+        <v>255</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+      <c r="L5" s="50"/>
       <c r="O5" t="s">
         <v>164</v>
       </c>
@@ -8630,6 +8644,11 @@
       <c r="E6" s="50"/>
       <c r="F6" s="50"/>
       <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+      <c r="L6" s="50"/>
       <c r="O6" t="s">
         <v>165</v>
       </c>
@@ -8641,6 +8660,11 @@
       <c r="E7" s="50"/>
       <c r="F7" s="50"/>
       <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+      <c r="L7" s="50"/>
     </row>
     <row r="8" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B8" s="50"/>
@@ -8649,6 +8673,11 @@
       <c r="E8" s="50"/>
       <c r="F8" s="50"/>
       <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+      <c r="L8" s="50"/>
       <c r="O8" t="s">
         <v>166</v>
       </c>
@@ -8660,6 +8689,11 @@
       <c r="E9" s="50"/>
       <c r="F9" s="50"/>
       <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+      <c r="L9" s="50"/>
       <c r="O9" t="s">
         <v>167</v>
       </c>
@@ -8671,6 +8705,11 @@
       <c r="E10" s="50"/>
       <c r="F10" s="50"/>
       <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+      <c r="L10" s="50"/>
       <c r="O10" t="s">
         <v>168</v>
       </c>
@@ -8682,6 +8721,11 @@
       <c r="E11" s="50"/>
       <c r="F11" s="50"/>
       <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+      <c r="L11" s="50"/>
     </row>
     <row r="12" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B12" s="50"/>
@@ -8690,6 +8734,11 @@
       <c r="E12" s="50"/>
       <c r="F12" s="50"/>
       <c r="G12" s="50"/>
+      <c r="H12" s="50"/>
+      <c r="I12" s="50"/>
+      <c r="J12" s="50"/>
+      <c r="K12" s="50"/>
+      <c r="L12" s="50"/>
       <c r="O12" t="s">
         <v>169</v>
       </c>
@@ -8701,6 +8750,11 @@
       <c r="E13" s="50"/>
       <c r="F13" s="50"/>
       <c r="G13" s="50"/>
+      <c r="H13" s="50"/>
+      <c r="I13" s="50"/>
+      <c r="J13" s="50"/>
+      <c r="K13" s="50"/>
+      <c r="L13" s="50"/>
       <c r="O13" t="s">
         <v>170</v>
       </c>
@@ -8712,6 +8766,11 @@
       <c r="E14" s="50"/>
       <c r="F14" s="50"/>
       <c r="G14" s="50"/>
+      <c r="H14" s="50"/>
+      <c r="I14" s="50"/>
+      <c r="J14" s="50"/>
+      <c r="K14" s="50"/>
+      <c r="L14" s="50"/>
     </row>
     <row r="15" spans="2:15" x14ac:dyDescent="0.4">
       <c r="B15" s="50"/>
@@ -8720,6 +8779,11 @@
       <c r="E15" s="50"/>
       <c r="F15" s="50"/>
       <c r="G15" s="50"/>
+      <c r="H15" s="50"/>
+      <c r="I15" s="50"/>
+      <c r="J15" s="50"/>
+      <c r="K15" s="50"/>
+      <c r="L15" s="50"/>
       <c r="O15" t="s">
         <v>171</v>
       </c>
@@ -8735,13 +8799,16 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="4">
     <mergeCell ref="B2:L3"/>
     <mergeCell ref="B4:G15"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="H5:L15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8760,537 +8827,527 @@
   <sheetData>
     <row r="2" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="3" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B3" s="71" t="s">
+      <c r="B3" s="75" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="72"/>
-      <c r="D3" s="72"/>
-      <c r="E3" s="72"/>
-      <c r="F3" s="72"/>
-      <c r="G3" s="73"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="77"/>
     </row>
     <row r="4" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B4" s="74"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-      <c r="F4" s="75"/>
-      <c r="G4" s="76"/>
+      <c r="B4" s="78"/>
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="80"/>
     </row>
     <row r="5" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="6" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B6" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="21" t="s">
         <v>184</v>
       </c>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-      <c r="I6" s="43"/>
-      <c r="J6" s="43"/>
-      <c r="K6" s="43"/>
-      <c r="L6" s="43"/>
-      <c r="M6" s="43"/>
-      <c r="N6" s="43"/>
-      <c r="O6" s="43"/>
-      <c r="P6" s="43"/>
-      <c r="Q6" s="43"/>
-      <c r="R6" s="43"/>
-      <c r="S6" s="43"/>
-      <c r="T6" s="44"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="21"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
+      <c r="Q6" s="21"/>
+      <c r="R6" s="21"/>
+      <c r="S6" s="21"/>
+      <c r="T6" s="22"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B7" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="C7" s="77" t="s">
+      <c r="C7" s="81" t="s">
         <v>65</v>
       </c>
-      <c r="D7" s="61"/>
-      <c r="E7" s="61"/>
-      <c r="F7" s="61"/>
-      <c r="G7" s="61"/>
-      <c r="H7" s="61"/>
-      <c r="I7" s="61"/>
-      <c r="J7" s="61"/>
-      <c r="K7" s="61"/>
-      <c r="L7" s="61"/>
-      <c r="M7" s="61"/>
-      <c r="N7" s="61"/>
-      <c r="O7" s="61"/>
-      <c r="P7" s="61"/>
-      <c r="Q7" s="61"/>
-      <c r="R7" s="61"/>
-      <c r="S7" s="61"/>
-      <c r="T7" s="62"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
+      <c r="M7" s="52"/>
+      <c r="N7" s="52"/>
+      <c r="O7" s="52"/>
+      <c r="P7" s="52"/>
+      <c r="Q7" s="52"/>
+      <c r="R7" s="52"/>
+      <c r="S7" s="52"/>
+      <c r="T7" s="53"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C8" s="30" t="s">
+      <c r="C8" s="24" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="31"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24"/>
+      <c r="M8" s="24"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="25"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="30" t="s">
+      <c r="C9" s="24" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="30"/>
-      <c r="J9" s="30"/>
-      <c r="K9" s="30"/>
-      <c r="L9" s="30"/>
-      <c r="M9" s="30"/>
-      <c r="N9" s="30"/>
-      <c r="O9" s="30"/>
-      <c r="P9" s="30"/>
-      <c r="Q9" s="30"/>
-      <c r="R9" s="30"/>
-      <c r="S9" s="30"/>
-      <c r="T9" s="31"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24"/>
+      <c r="M9" s="24"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="25"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B10" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="24" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="30"/>
-      <c r="J10" s="30"/>
-      <c r="K10" s="30"/>
-      <c r="L10" s="30"/>
-      <c r="M10" s="30"/>
-      <c r="N10" s="30"/>
-      <c r="O10" s="30"/>
-      <c r="P10" s="30"/>
-      <c r="Q10" s="30"/>
-      <c r="R10" s="30"/>
-      <c r="S10" s="30"/>
-      <c r="T10" s="31"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24"/>
+      <c r="M10" s="24"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="25"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C11" s="24" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="30"/>
-      <c r="J11" s="30"/>
-      <c r="K11" s="30"/>
-      <c r="L11" s="30"/>
-      <c r="M11" s="30"/>
-      <c r="N11" s="30"/>
-      <c r="O11" s="30"/>
-      <c r="P11" s="30"/>
-      <c r="Q11" s="30"/>
-      <c r="R11" s="30"/>
-      <c r="S11" s="30"/>
-      <c r="T11" s="31"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24"/>
+      <c r="M11" s="24"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="25"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C12" s="30" t="s">
+      <c r="C12" s="24" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="30"/>
-      <c r="J12" s="30"/>
-      <c r="K12" s="30"/>
-      <c r="L12" s="30"/>
-      <c r="M12" s="30"/>
-      <c r="N12" s="30"/>
-      <c r="O12" s="30"/>
-      <c r="P12" s="30"/>
-      <c r="Q12" s="30"/>
-      <c r="R12" s="30"/>
-      <c r="S12" s="30"/>
-      <c r="T12" s="31"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24"/>
+      <c r="M12" s="24"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="25"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B13" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C13" s="77" t="s">
+      <c r="C13" s="81" t="s">
         <v>133</v>
       </c>
-      <c r="D13" s="61"/>
-      <c r="E13" s="61"/>
-      <c r="F13" s="61"/>
-      <c r="G13" s="61"/>
-      <c r="H13" s="61"/>
-      <c r="I13" s="61"/>
-      <c r="J13" s="61"/>
-      <c r="K13" s="61"/>
-      <c r="L13" s="61"/>
-      <c r="M13" s="61"/>
-      <c r="N13" s="61"/>
-      <c r="O13" s="61"/>
-      <c r="P13" s="61"/>
-      <c r="Q13" s="61"/>
-      <c r="R13" s="61"/>
-      <c r="S13" s="61"/>
-      <c r="T13" s="62"/>
+      <c r="D13" s="52"/>
+      <c r="E13" s="52"/>
+      <c r="F13" s="52"/>
+      <c r="G13" s="52"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="52"/>
+      <c r="J13" s="52"/>
+      <c r="K13" s="52"/>
+      <c r="L13" s="52"/>
+      <c r="M13" s="52"/>
+      <c r="N13" s="52"/>
+      <c r="O13" s="52"/>
+      <c r="P13" s="52"/>
+      <c r="Q13" s="52"/>
+      <c r="R13" s="52"/>
+      <c r="S13" s="52"/>
+      <c r="T13" s="53"/>
     </row>
     <row r="14" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="33" t="s">
+      <c r="C14" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-      <c r="L14" s="33"/>
-      <c r="M14" s="33"/>
-      <c r="N14" s="33"/>
-      <c r="O14" s="33"/>
-      <c r="P14" s="33"/>
-      <c r="Q14" s="33"/>
-      <c r="R14" s="33"/>
-      <c r="S14" s="33"/>
-      <c r="T14" s="34"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="27"/>
+      <c r="N14" s="27"/>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="28"/>
     </row>
     <row r="15" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="16" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B16" s="47" t="s">
+      <c r="B16" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
-      <c r="H16" s="48"/>
-      <c r="I16" s="48"/>
-      <c r="J16" s="48"/>
-      <c r="K16" s="49"/>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="16"/>
+      <c r="I16" s="16"/>
+      <c r="J16" s="16"/>
+      <c r="K16" s="17"/>
     </row>
     <row r="17" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="30" t="s">
+      <c r="C17" s="24" t="s">
         <v>36</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="30"/>
-      <c r="J17" s="30"/>
-      <c r="K17" s="31"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="25"/>
     </row>
     <row r="18" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B18" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C18" s="30" t="s">
+      <c r="C18" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="30"/>
-      <c r="J18" s="30"/>
-      <c r="K18" s="31"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="25"/>
     </row>
     <row r="19" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B19" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C19" s="30" t="s">
+      <c r="C19" s="24" t="s">
         <v>38</v>
       </c>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="30"/>
-      <c r="J19" s="30"/>
-      <c r="K19" s="31"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="25"/>
     </row>
     <row r="20" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C20" s="30" t="s">
+      <c r="C20" s="24" t="s">
         <v>39</v>
       </c>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="30"/>
-      <c r="J20" s="30"/>
-      <c r="K20" s="31"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="25"/>
     </row>
     <row r="21" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B21" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C21" s="30" t="s">
+      <c r="C21" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="30"/>
-      <c r="J21" s="30"/>
-      <c r="K21" s="31"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="25"/>
     </row>
     <row r="22" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B22" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="30" t="s">
+      <c r="C22" s="24" t="s">
         <v>42</v>
       </c>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="30"/>
-      <c r="K22" s="31"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="25"/>
     </row>
     <row r="23" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B23" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C23" s="33" t="s">
+      <c r="C23" s="27" t="s">
         <v>41</v>
       </c>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="33"/>
-      <c r="K23" s="34"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="27"/>
+      <c r="H23" s="27"/>
+      <c r="I23" s="27"/>
+      <c r="J23" s="27"/>
+      <c r="K23" s="28"/>
     </row>
     <row r="24" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="25" spans="2:20" x14ac:dyDescent="0.4">
-      <c r="B25" s="47" t="s">
+      <c r="B25" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C25" s="48"/>
-      <c r="D25" s="48"/>
-      <c r="E25" s="48"/>
-      <c r="F25" s="48"/>
-      <c r="G25" s="48"/>
-      <c r="H25" s="48"/>
-      <c r="I25" s="48"/>
-      <c r="J25" s="48"/>
-      <c r="K25" s="48"/>
-      <c r="L25" s="48"/>
-      <c r="M25" s="48"/>
-      <c r="N25" s="48"/>
-      <c r="O25" s="48"/>
-      <c r="P25" s="48"/>
-      <c r="Q25" s="48"/>
-      <c r="R25" s="48"/>
-      <c r="S25" s="48"/>
-      <c r="T25" s="49"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="17"/>
     </row>
     <row r="26" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B26" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C26" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="D26" s="30"/>
-      <c r="E26" s="30"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="30"/>
-      <c r="H26" s="30"/>
-      <c r="I26" s="30"/>
-      <c r="J26" s="30"/>
-      <c r="K26" s="30"/>
-      <c r="L26" s="30"/>
-      <c r="M26" s="30"/>
-      <c r="N26" s="30"/>
-      <c r="O26" s="30"/>
-      <c r="P26" s="30"/>
-      <c r="Q26" s="30"/>
-      <c r="R26" s="30"/>
-      <c r="S26" s="30"/>
-      <c r="T26" s="31"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="25"/>
     </row>
     <row r="27" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B27" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C27" s="24" t="s">
         <v>27</v>
       </c>
-      <c r="D27" s="30"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
-      <c r="I27" s="30"/>
-      <c r="J27" s="30"/>
-      <c r="K27" s="30"/>
-      <c r="L27" s="30"/>
-      <c r="M27" s="30"/>
-      <c r="N27" s="30"/>
-      <c r="O27" s="30"/>
-      <c r="P27" s="30"/>
-      <c r="Q27" s="30"/>
-      <c r="R27" s="30"/>
-      <c r="S27" s="30"/>
-      <c r="T27" s="31"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="25"/>
     </row>
     <row r="28" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B28" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C28" s="30" t="s">
+      <c r="C28" s="24" t="s">
         <v>29</v>
       </c>
-      <c r="D28" s="30"/>
-      <c r="E28" s="30"/>
-      <c r="F28" s="30"/>
-      <c r="G28" s="30"/>
-      <c r="H28" s="30"/>
-      <c r="I28" s="30"/>
-      <c r="J28" s="30"/>
-      <c r="K28" s="30"/>
-      <c r="L28" s="30"/>
-      <c r="M28" s="30"/>
-      <c r="N28" s="30"/>
-      <c r="O28" s="30"/>
-      <c r="P28" s="30"/>
-      <c r="Q28" s="30"/>
-      <c r="R28" s="30"/>
-      <c r="S28" s="30"/>
-      <c r="T28" s="31"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="25"/>
     </row>
     <row r="29" spans="2:20" x14ac:dyDescent="0.4">
       <c r="B29" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C29" s="30" t="s">
+      <c r="C29" s="24" t="s">
         <v>43</v>
       </c>
-      <c r="D29" s="30"/>
-      <c r="E29" s="30"/>
-      <c r="F29" s="30"/>
-      <c r="G29" s="30"/>
-      <c r="H29" s="30"/>
-      <c r="I29" s="30"/>
-      <c r="J29" s="30"/>
-      <c r="K29" s="30"/>
-      <c r="L29" s="30"/>
-      <c r="M29" s="30"/>
-      <c r="N29" s="30"/>
-      <c r="O29" s="30"/>
-      <c r="P29" s="30"/>
-      <c r="Q29" s="30"/>
-      <c r="R29" s="30"/>
-      <c r="S29" s="30"/>
-      <c r="T29" s="31"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="25"/>
     </row>
     <row r="30" spans="2:20" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C30" s="33" t="s">
+      <c r="C30" s="27" t="s">
         <v>44</v>
       </c>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
-      <c r="M30" s="33"/>
-      <c r="N30" s="33"/>
-      <c r="O30" s="33"/>
-      <c r="P30" s="33"/>
-      <c r="Q30" s="33"/>
-      <c r="R30" s="33"/>
-      <c r="S30" s="33"/>
-      <c r="T30" s="34"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
+      <c r="H30" s="27"/>
+      <c r="I30" s="27"/>
+      <c r="J30" s="27"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="27"/>
+      <c r="M30" s="27"/>
+      <c r="N30" s="27"/>
+      <c r="O30" s="27"/>
+      <c r="P30" s="27"/>
+      <c r="Q30" s="27"/>
+      <c r="R30" s="27"/>
+      <c r="S30" s="27"/>
+      <c r="T30" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="C27:T27"/>
-    <mergeCell ref="C28:T28"/>
-    <mergeCell ref="C29:T29"/>
-    <mergeCell ref="C30:T30"/>
-    <mergeCell ref="C20:K20"/>
-    <mergeCell ref="C21:K21"/>
-    <mergeCell ref="C22:K22"/>
-    <mergeCell ref="C23:K23"/>
-    <mergeCell ref="B25:T25"/>
-    <mergeCell ref="C26:T26"/>
     <mergeCell ref="C19:K19"/>
     <mergeCell ref="B3:G4"/>
     <mergeCell ref="C6:T6"/>
@@ -9305,6 +9362,16 @@
     <mergeCell ref="B16:K16"/>
     <mergeCell ref="C17:K17"/>
     <mergeCell ref="C18:K18"/>
+    <mergeCell ref="C27:T27"/>
+    <mergeCell ref="C28:T28"/>
+    <mergeCell ref="C29:T29"/>
+    <mergeCell ref="C30:T30"/>
+    <mergeCell ref="C20:K20"/>
+    <mergeCell ref="C21:K21"/>
+    <mergeCell ref="C22:K22"/>
+    <mergeCell ref="C23:K23"/>
+    <mergeCell ref="B25:T25"/>
+    <mergeCell ref="C26:T26"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9324,268 +9391,268 @@
   <sheetData>
     <row r="1" spans="2:13" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="2" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B2" s="47" t="s">
+      <c r="B2" s="15" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="H2" s="48"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="48"/>
-      <c r="K2" s="48"/>
-      <c r="L2" s="48"/>
-      <c r="M2" s="49"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="16"/>
+      <c r="G2" s="16"/>
+      <c r="H2" s="16"/>
+      <c r="I2" s="16"/>
+      <c r="J2" s="16"/>
+      <c r="K2" s="16"/>
+      <c r="L2" s="16"/>
+      <c r="M2" s="17"/>
     </row>
     <row r="3" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B3" s="79"/>
-      <c r="C3" s="80"/>
-      <c r="D3" s="80"/>
-      <c r="E3" s="80"/>
-      <c r="F3" s="80"/>
-      <c r="G3" s="80"/>
-      <c r="H3" s="80"/>
-      <c r="I3" s="80"/>
-      <c r="J3" s="80"/>
-      <c r="K3" s="80"/>
-      <c r="L3" s="80"/>
-      <c r="M3" s="81"/>
+      <c r="B3" s="83"/>
+      <c r="C3" s="84"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
+      <c r="H3" s="84"/>
+      <c r="I3" s="84"/>
+      <c r="J3" s="84"/>
+      <c r="K3" s="84"/>
+      <c r="L3" s="84"/>
+      <c r="M3" s="85"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B4" s="45"/>
-      <c r="C4" s="38"/>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="38"/>
-      <c r="G4" s="38"/>
-      <c r="H4" s="38"/>
-      <c r="I4" s="38"/>
-      <c r="J4" s="38"/>
-      <c r="K4" s="38"/>
-      <c r="L4" s="38"/>
-      <c r="M4" s="39"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="18"/>
     </row>
     <row r="5" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B5" s="45"/>
-      <c r="C5" s="38"/>
-      <c r="D5" s="38"/>
-      <c r="E5" s="38"/>
-      <c r="F5" s="38"/>
-      <c r="G5" s="38"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="38"/>
-      <c r="J5" s="38"/>
-      <c r="K5" s="38"/>
-      <c r="L5" s="38"/>
-      <c r="M5" s="39"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
+      <c r="J5" s="12"/>
+      <c r="K5" s="12"/>
+      <c r="L5" s="12"/>
+      <c r="M5" s="18"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B6" s="45"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="38"/>
-      <c r="M6" s="39"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="12"/>
+      <c r="G6" s="12"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="18"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B7" s="45"/>
-      <c r="C7" s="38"/>
-      <c r="D7" s="38"/>
-      <c r="E7" s="38"/>
-      <c r="F7" s="38"/>
-      <c r="G7" s="38"/>
-      <c r="H7" s="38"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="38"/>
-      <c r="K7" s="38"/>
-      <c r="L7" s="38"/>
-      <c r="M7" s="39"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="12"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="12"/>
+      <c r="J7" s="12"/>
+      <c r="K7" s="12"/>
+      <c r="L7" s="12"/>
+      <c r="M7" s="18"/>
     </row>
     <row r="8" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B8" s="45"/>
-      <c r="C8" s="38"/>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="38"/>
-      <c r="G8" s="38"/>
-      <c r="H8" s="38"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="38"/>
-      <c r="K8" s="38"/>
-      <c r="L8" s="38"/>
-      <c r="M8" s="39"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="12"/>
+      <c r="J8" s="12"/>
+      <c r="K8" s="12"/>
+      <c r="L8" s="12"/>
+      <c r="M8" s="18"/>
     </row>
     <row r="9" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B9" s="45"/>
-      <c r="C9" s="38"/>
-      <c r="D9" s="38"/>
-      <c r="E9" s="38"/>
-      <c r="F9" s="38"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="38"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="38"/>
-      <c r="K9" s="38"/>
-      <c r="L9" s="38"/>
-      <c r="M9" s="39"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="12"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="12"/>
+      <c r="J9" s="12"/>
+      <c r="K9" s="12"/>
+      <c r="L9" s="12"/>
+      <c r="M9" s="18"/>
     </row>
     <row r="10" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B10" s="45"/>
-      <c r="C10" s="38"/>
-      <c r="D10" s="38"/>
-      <c r="E10" s="38"/>
-      <c r="F10" s="38"/>
-      <c r="G10" s="38"/>
-      <c r="H10" s="38"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="38"/>
-      <c r="K10" s="38"/>
-      <c r="L10" s="38"/>
-      <c r="M10" s="39"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+      <c r="G10" s="12"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="18"/>
     </row>
     <row r="11" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B11" s="45"/>
-      <c r="C11" s="38"/>
-      <c r="D11" s="38"/>
-      <c r="E11" s="38"/>
-      <c r="F11" s="38"/>
-      <c r="G11" s="38"/>
-      <c r="H11" s="38"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="38"/>
-      <c r="K11" s="38"/>
-      <c r="L11" s="38"/>
-      <c r="M11" s="39"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="12"/>
+      <c r="G11" s="12"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="12"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
+      <c r="L11" s="12"/>
+      <c r="M11" s="18"/>
     </row>
     <row r="12" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B12" s="45"/>
-      <c r="C12" s="38"/>
-      <c r="D12" s="38"/>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38"/>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="38"/>
-      <c r="M12" s="39"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="12"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="12"/>
+      <c r="J12" s="12"/>
+      <c r="K12" s="12"/>
+      <c r="L12" s="12"/>
+      <c r="M12" s="18"/>
     </row>
     <row r="13" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B13" s="45"/>
-      <c r="C13" s="38"/>
-      <c r="D13" s="38"/>
-      <c r="E13" s="38"/>
-      <c r="F13" s="38"/>
-      <c r="G13" s="38"/>
-      <c r="H13" s="38"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="38"/>
-      <c r="K13" s="38"/>
-      <c r="L13" s="38"/>
-      <c r="M13" s="39"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="12"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="12"/>
+      <c r="J13" s="12"/>
+      <c r="K13" s="12"/>
+      <c r="L13" s="12"/>
+      <c r="M13" s="18"/>
     </row>
     <row r="14" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B14" s="45"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
-      <c r="L14" s="38"/>
-      <c r="M14" s="39"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="12"/>
+      <c r="G14" s="12"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="12"/>
+      <c r="J14" s="12"/>
+      <c r="K14" s="12"/>
+      <c r="L14" s="12"/>
+      <c r="M14" s="18"/>
     </row>
     <row r="15" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B15" s="45"/>
-      <c r="C15" s="38"/>
-      <c r="D15" s="38"/>
-      <c r="E15" s="38"/>
-      <c r="F15" s="38"/>
-      <c r="G15" s="38"/>
-      <c r="H15" s="38"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="38"/>
-      <c r="K15" s="38"/>
-      <c r="L15" s="38"/>
-      <c r="M15" s="39"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
+      <c r="G15" s="12"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="18"/>
     </row>
     <row r="16" spans="2:13" x14ac:dyDescent="0.4">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="83"/>
-      <c r="F16" s="83"/>
-      <c r="G16" s="83"/>
-      <c r="H16" s="83"/>
-      <c r="I16" s="83"/>
-      <c r="J16" s="83"/>
-      <c r="K16" s="83"/>
-      <c r="L16" s="83"/>
-      <c r="M16" s="84"/>
+      <c r="B16" s="86"/>
+      <c r="C16" s="87"/>
+      <c r="D16" s="87"/>
+      <c r="E16" s="87"/>
+      <c r="F16" s="87"/>
+      <c r="G16" s="87"/>
+      <c r="H16" s="87"/>
+      <c r="I16" s="87"/>
+      <c r="J16" s="87"/>
+      <c r="K16" s="87"/>
+      <c r="L16" s="87"/>
+      <c r="M16" s="88"/>
     </row>
     <row r="17" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B17" s="79" t="s">
+      <c r="B17" s="83" t="s">
         <v>49</v>
       </c>
-      <c r="C17" s="80"/>
-      <c r="D17" s="80"/>
-      <c r="E17" s="80"/>
-      <c r="F17" s="80"/>
-      <c r="G17" s="80"/>
-      <c r="H17" s="80"/>
-      <c r="I17" s="80"/>
-      <c r="J17" s="80"/>
-      <c r="K17" s="80"/>
-      <c r="L17" s="80"/>
-      <c r="M17" s="81"/>
+      <c r="C17" s="84"/>
+      <c r="D17" s="84"/>
+      <c r="E17" s="84"/>
+      <c r="F17" s="84"/>
+      <c r="G17" s="84"/>
+      <c r="H17" s="84"/>
+      <c r="I17" s="84"/>
+      <c r="J17" s="84"/>
+      <c r="K17" s="84"/>
+      <c r="L17" s="84"/>
+      <c r="M17" s="85"/>
     </row>
     <row r="18" spans="2:15" ht="18" thickBot="1" x14ac:dyDescent="0.45">
       <c r="B18" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="40" t="s">
+      <c r="C18" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="40"/>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40"/>
-      <c r="M18" s="41"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
+      <c r="J18" s="14"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="14"/>
+      <c r="M18" s="19"/>
     </row>
     <row r="22" spans="2:15" x14ac:dyDescent="0.4">
-      <c r="B22" s="78" t="s">
+      <c r="B22" s="82" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="78"/>
-      <c r="D22" s="78"/>
-      <c r="E22" s="78"/>
-      <c r="F22" s="78"/>
-      <c r="G22" s="78"/>
-      <c r="H22" s="78"/>
-      <c r="I22" s="78"/>
-      <c r="J22" s="78"/>
-      <c r="K22" s="78"/>
-      <c r="L22" s="78"/>
-      <c r="M22" s="78"/>
-      <c r="N22" s="78"/>
-      <c r="O22" s="78"/>
+      <c r="C22" s="82"/>
+      <c r="D22" s="82"/>
+      <c r="E22" s="82"/>
+      <c r="F22" s="82"/>
+      <c r="G22" s="82"/>
+      <c r="H22" s="82"/>
+      <c r="I22" s="82"/>
+      <c r="J22" s="82"/>
+      <c r="K22" s="82"/>
+      <c r="L22" s="82"/>
+      <c r="M22" s="82"/>
+      <c r="N22" s="82"/>
+      <c r="O22" s="82"/>
     </row>
     <row r="41" spans="14:14" x14ac:dyDescent="0.4">
       <c r="N41">
@@ -9685,7 +9752,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D0809319-B44D-402C-B62F-92E33EF7EB13}">
   <dimension ref="B1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
@@ -9698,30 +9765,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B1" s="71" t="s">
+      <c r="B1" s="75" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
-      <c r="F1" s="73"/>
+      <c r="C1" s="76"/>
+      <c r="D1" s="76"/>
+      <c r="E1" s="76"/>
+      <c r="F1" s="77"/>
     </row>
     <row r="2" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="B2" s="74"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="78"/>
+      <c r="C2" s="79"/>
+      <c r="D2" s="79"/>
+      <c r="E2" s="79"/>
+      <c r="F2" s="80"/>
     </row>
     <row r="3" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="4" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B4" s="47" t="s">
+      <c r="B4" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="49"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="16"/>
+      <c r="E4" s="16"/>
+      <c r="F4" s="17"/>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B5" s="2" t="s">
@@ -9948,13 +10015,13 @@
     </row>
     <row r="21" spans="2:6" ht="18" thickBot="1" x14ac:dyDescent="0.45"/>
     <row r="22" spans="2:6" x14ac:dyDescent="0.4">
-      <c r="B22" s="47" t="s">
+      <c r="B22" s="15" t="s">
         <v>110</v>
       </c>
-      <c r="C22" s="48"/>
-      <c r="D22" s="48"/>
-      <c r="E22" s="48"/>
-      <c r="F22" s="49"/>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="17"/>
     </row>
     <row r="23" spans="2:6" x14ac:dyDescent="0.4">
       <c r="B23" s="2" t="s">
